--- a/rec_selectivity_by_state_cdf_star_raw.xlsx
+++ b/rec_selectivity_by_state_cdf_star_raw.xlsx
@@ -161,13 +161,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>8996.990234375</v>
+        <v>8938.6943359375</v>
       </c>
       <c r="D4" s="2">
         <v>413071</v>
       </c>
       <c r="E4" s="1">
-        <v>1.1872450800254342e-09</v>
+        <v>1.1795523446878065e-09</v>
       </c>
     </row>
     <row r="5">
@@ -178,13 +178,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>14395.1826171875</v>
+        <v>14301.9091796875</v>
       </c>
       <c r="D5" s="2">
         <v>413071</v>
       </c>
       <c r="E5" s="1">
-        <v>1.6773801236880104e-09</v>
+        <v>1.6665115953884424e-09</v>
       </c>
     </row>
     <row r="6">
@@ -195,13 +195,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>14395.1826171875</v>
+        <v>14301.9091796875</v>
       </c>
       <c r="D6" s="2">
         <v>413071</v>
       </c>
       <c r="E6" s="1">
-        <v>4.2856269644175882e-09</v>
+        <v>4.2578585102148736e-09</v>
       </c>
     </row>
     <row r="7">
@@ -212,13 +212,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>23392.171875</v>
+        <v>23240.6015625</v>
       </c>
       <c r="D7" s="2">
         <v>413071</v>
       </c>
       <c r="E7" s="1">
-        <v>7.2460757394310349e-09</v>
+        <v>7.199124407719637e-09</v>
       </c>
     </row>
     <row r="8">
@@ -229,13 +229,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>59380.1328125</v>
+        <v>58995.37890625</v>
       </c>
       <c r="D8" s="2">
         <v>413071</v>
       </c>
       <c r="E8" s="1">
-        <v>2.4849914126434669e-08</v>
+        <v>2.4688899813440912e-08</v>
       </c>
     </row>
     <row r="9">
@@ -246,13 +246,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>170942.796875</v>
+        <v>169835.171875</v>
       </c>
       <c r="D9" s="2">
         <v>413071</v>
       </c>
       <c r="E9" s="1">
-        <v>5.3178556669308819e-08</v>
+        <v>5.2833986075029316e-08</v>
       </c>
     </row>
     <row r="10">
@@ -263,13 +263,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>141908.34375</v>
+        <v>140988.84375</v>
       </c>
       <c r="D10" s="2">
         <v>413071</v>
       </c>
       <c r="E10" s="1">
-        <v>3.2860633325526578e-08</v>
+        <v>3.2647712089328706e-08</v>
       </c>
     </row>
     <row r="11">
@@ -280,13 +280,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>160653.515625</v>
+        <v>159612.5625</v>
       </c>
       <c r="D11" s="2">
         <v>413071</v>
       </c>
       <c r="E11" s="1">
-        <v>2.1420579088271552e-08</v>
+        <v>2.1281785222981853e-08</v>
       </c>
     </row>
     <row r="12">
@@ -297,13 +297,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>176922.125</v>
+        <v>175775.75</v>
       </c>
       <c r="D12" s="2">
         <v>413071</v>
       </c>
       <c r="E12" s="1">
-        <v>4.8237463801115155e-08</v>
+        <v>4.7924906709795323e-08</v>
       </c>
     </row>
     <row r="13">
@@ -314,13 +314,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>184298.640625</v>
+        <v>183104.484375</v>
       </c>
       <c r="D13" s="2">
         <v>413071</v>
       </c>
       <c r="E13" s="1">
-        <v>5.5140958465926815e-08</v>
+        <v>5.4783672709390885e-08</v>
       </c>
     </row>
     <row r="14">
@@ -331,13 +331,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>106559.2890625</v>
+        <v>113732.71875</v>
       </c>
       <c r="D14" s="2">
         <v>413071</v>
       </c>
       <c r="E14" s="1">
-        <v>5.5896482109574208e-08</v>
+        <v>5.9659356566044153e-08</v>
       </c>
     </row>
     <row r="15">
@@ -348,13 +348,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>7915.16162109375</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
         <v>413071</v>
       </c>
       <c r="E15" s="1">
-        <v>4.3363730384271548e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -365,13 +365,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>25066.9140625</v>
+        <v>27099.3671875</v>
       </c>
       <c r="D16" s="2">
         <v>413071</v>
       </c>
       <c r="E16" s="1">
-        <v>1.6758409771000515e-08</v>
+        <v>1.8117200184519788e-08</v>
       </c>
     </row>
     <row r="17">
@@ -382,13 +382,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>23436.361328125</v>
+        <v>25336.60546875</v>
       </c>
       <c r="D17" s="2">
         <v>413071</v>
       </c>
       <c r="E17" s="1">
-        <v>2.9267233969676454e-08</v>
+        <v>3.1640251307862854e-08</v>
       </c>
     </row>
     <row r="18">
@@ -399,13 +399,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>21240.380859375</v>
+        <v>22962.57421875</v>
       </c>
       <c r="D18" s="2">
         <v>413071</v>
       </c>
       <c r="E18" s="1">
-        <v>1.8961189951482993e-08</v>
+        <v>2.0498584163419764e-08</v>
       </c>
     </row>
     <row r="19">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>10523.3349609375</v>
+        <v>11376.578125</v>
       </c>
       <c r="D19" s="2">
         <v>413071</v>
       </c>
       <c r="E19" s="1">
-        <v>1.3226432393764753e-08</v>
+        <v>1.4298845663063275e-08</v>
       </c>
     </row>
     <row r="20">
@@ -433,13 +433,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>3898.23779296875</v>
+        <v>4214.31103515625</v>
       </c>
       <c r="D20" s="2">
         <v>413071</v>
       </c>
       <c r="E20" s="1">
-        <v>4.7555146487354705e-09</v>
+        <v>5.1410968815446267e-09</v>
       </c>
     </row>
     <row r="21">
@@ -450,13 +450,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>477.483642578125</v>
+        <v>516.19854736328125</v>
       </c>
       <c r="D21" s="2">
         <v>413071</v>
       </c>
       <c r="E21" s="1">
-        <v>1.2765551948845655e-09</v>
+        <v>1.3800597331581343e-09</v>
       </c>
     </row>
     <row r="22">
@@ -467,13 +467,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>688.2860107421875</v>
+        <v>744.09295654296875</v>
       </c>
       <c r="D22" s="2">
         <v>413071</v>
       </c>
       <c r="E22" s="1">
-        <v>1.8230026377352715e-09</v>
+        <v>1.9708135123863713e-09</v>
       </c>
     </row>
     <row r="23">
@@ -501,13 +501,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>157.34564208984375</v>
+        <v>170.1033935546875</v>
       </c>
       <c r="D24" s="2">
         <v>413071</v>
       </c>
       <c r="E24" s="1">
-        <v>8.9628904298422185e-10</v>
+        <v>9.6896113355171565e-10</v>
       </c>
     </row>
     <row r="25">
@@ -552,13 +552,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>5172.4892578125</v>
+        <v>5154.81591796875</v>
       </c>
       <c r="D27" s="2">
         <v>401288</v>
       </c>
       <c r="E27" s="1">
-        <v>7.0260502971208894e-10</v>
+        <v>7.0020439446594196e-10</v>
       </c>
     </row>
     <row r="28">
@@ -586,13 +586,13 @@
         <v>3</v>
       </c>
       <c r="C29" s="1">
-        <v>10344.978515625</v>
+        <v>10309.6318359375</v>
       </c>
       <c r="D29" s="2">
         <v>401288</v>
       </c>
       <c r="E29" s="1">
-        <v>3.1702631630992073e-09</v>
+        <v>3.1594309390925446e-09</v>
       </c>
     </row>
     <row r="30">
@@ -603,13 +603,13 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>20689.95703125</v>
+        <v>20619.263671875</v>
       </c>
       <c r="D30" s="2">
         <v>401288</v>
       </c>
       <c r="E30" s="1">
-        <v>6.5972121099378001e-09</v>
+        <v>6.5746705857350207e-09</v>
       </c>
     </row>
     <row r="31">
@@ -620,13 +620,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>56897.390625</v>
+        <v>56702.98046875</v>
       </c>
       <c r="D31" s="2">
         <v>401288</v>
       </c>
       <c r="E31" s="1">
-        <v>2.4510073970418489e-08</v>
+        <v>2.4426325850868125e-08</v>
       </c>
     </row>
     <row r="32">
@@ -637,13 +637,13 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>93106.765625</v>
+        <v>92788.6328125</v>
       </c>
       <c r="D32" s="2">
         <v>401288</v>
       </c>
       <c r="E32" s="1">
-        <v>2.9815048208092776e-08</v>
+        <v>2.9713174143353172e-08</v>
       </c>
     </row>
     <row r="33">
@@ -654,13 +654,13 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>114442.1796875</v>
+        <v>114051.140625</v>
       </c>
       <c r="D33" s="2">
         <v>401288</v>
       </c>
       <c r="E33" s="1">
-        <v>2.7278634462390983e-08</v>
+        <v>2.7185425466313973e-08</v>
       </c>
     </row>
     <row r="34">
@@ -671,13 +671,13 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>98658.21875</v>
+        <v>98321.1171875</v>
       </c>
       <c r="D34" s="2">
         <v>401288</v>
       </c>
       <c r="E34" s="1">
-        <v>1.354075251924769e-08</v>
+        <v>1.3494485529008671e-08</v>
       </c>
     </row>
     <row r="35">
@@ -688,13 +688,13 @@
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>40918.30859375</v>
+        <v>40778.49609375</v>
       </c>
       <c r="D35" s="2">
         <v>401288</v>
       </c>
       <c r="E35" s="1">
-        <v>1.148387696048303e-08</v>
+        <v>1.1444638126079099e-08</v>
       </c>
     </row>
     <row r="36">
@@ -705,13 +705,13 @@
         <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>27043.623046875</v>
+        <v>26951.21875</v>
       </c>
       <c r="D36" s="2">
         <v>401288</v>
       </c>
       <c r="E36" s="1">
-        <v>8.3288602681363955e-09</v>
+        <v>8.3004021433907837e-09</v>
       </c>
     </row>
     <row r="37">
@@ -722,13 +722,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>29959.662109375</v>
+        <v>30696.376953125</v>
       </c>
       <c r="D37" s="2">
         <v>401288</v>
       </c>
       <c r="E37" s="1">
-        <v>1.6177022388319529e-08</v>
+        <v>1.6574819738934821e-08</v>
       </c>
     </row>
     <row r="38">
@@ -739,13 +739,13 @@
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>20110.3671875</v>
+        <v>20604.884765625</v>
       </c>
       <c r="D38" s="2">
         <v>401288</v>
       </c>
       <c r="E38" s="1">
-        <v>1.1341105832229914e-08</v>
+        <v>1.1619985862409976e-08</v>
       </c>
     </row>
     <row r="39">
@@ -756,13 +756,13 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>7781.97265625</v>
+        <v>7973.3330078125</v>
       </c>
       <c r="D39" s="2">
         <v>401288</v>
       </c>
       <c r="E39" s="1">
-        <v>5.3553783629922691e-09</v>
+        <v>5.4870685772812067e-09</v>
       </c>
     </row>
     <row r="40">
@@ -773,13 +773,13 @@
         <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>532.8372802734375</v>
+        <v>545.93988037109375</v>
       </c>
       <c r="D40" s="2">
         <v>401288</v>
       </c>
       <c r="E40" s="1">
-        <v>6.8494332428059579e-10</v>
+        <v>7.0178624023142788e-10</v>
       </c>
     </row>
     <row r="41">
@@ -790,13 +790,13 @@
         <v>3</v>
       </c>
       <c r="C41" s="1">
-        <v>6285.3681640625</v>
+        <v>6439.92626953125</v>
       </c>
       <c r="D41" s="2">
         <v>401288</v>
       </c>
       <c r="E41" s="1">
-        <v>5.7756719407109358e-09</v>
+        <v>5.9176965550022942e-09</v>
       </c>
     </row>
     <row r="42">
@@ -824,13 +824,13 @@
         <v>3</v>
       </c>
       <c r="C43" s="1">
-        <v>12.590470314025879</v>
+        <v>12.90007209777832</v>
       </c>
       <c r="D43" s="2">
         <v>401288</v>
       </c>
       <c r="E43" s="1">
-        <v>1.5810285372563904e-11</v>
+        <v>1.6199062924382446e-11</v>
       </c>
     </row>
     <row r="44">
@@ -841,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="C44" s="1">
-        <v>245.92071533203125</v>
+        <v>251.96794128417969</v>
       </c>
       <c r="D44" s="2">
         <v>401288</v>
       </c>
       <c r="E44" s="1">
-        <v>6.7677569104418467e-10</v>
+        <v>6.9341771213871084e-10</v>
       </c>
     </row>
     <row r="45">
@@ -875,13 +875,13 @@
         <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>16839.580078125</v>
+        <v>16736.26953125</v>
       </c>
       <c r="D46" s="2">
         <v>104251</v>
       </c>
       <c r="E46" s="1">
-        <v>2.066845716797161e-08</v>
+        <v>2.0541655487704702e-08</v>
       </c>
     </row>
     <row r="47">
@@ -892,13 +892,13 @@
         <v>4</v>
       </c>
       <c r="C47" s="1">
-        <v>16839.580078125</v>
+        <v>16736.26953125</v>
       </c>
       <c r="D47" s="2">
         <v>104251</v>
       </c>
       <c r="E47" s="1">
-        <v>2.7922832046556323e-08</v>
+        <v>2.775152729839192e-08</v>
       </c>
     </row>
     <row r="48">
@@ -909,13 +909,13 @@
         <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>17955.13671875</v>
+        <v>17844.982421875</v>
       </c>
       <c r="D48" s="2">
         <v>104251</v>
       </c>
       <c r="E48" s="1">
-        <v>2.2131910526468346e-08</v>
+        <v>2.1996132915091948e-08</v>
       </c>
     </row>
     <row r="49">
@@ -926,13 +926,13 @@
         <v>4</v>
       </c>
       <c r="C49" s="1">
-        <v>3734.951904296875</v>
+        <v>3712.0380859375</v>
       </c>
       <c r="D49" s="2">
         <v>104251</v>
       </c>
       <c r="E49" s="1">
-        <v>3.4268687887362148e-09</v>
+        <v>3.4058449394080981e-09</v>
       </c>
     </row>
     <row r="50">
@@ -943,13 +943,13 @@
         <v>4</v>
       </c>
       <c r="C50" s="1">
-        <v>33679.16015625</v>
+        <v>33472.5390625</v>
       </c>
       <c r="D50" s="2">
         <v>104251</v>
       </c>
       <c r="E50" s="1">
-        <v>1.7792899598134682e-08</v>
+        <v>1.7683740693996697e-08</v>
       </c>
     </row>
     <row r="51">
@@ -960,13 +960,13 @@
         <v>4</v>
       </c>
       <c r="C51" s="1">
-        <v>95068.5546875</v>
+        <v>94485.3125</v>
       </c>
       <c r="D51" s="2">
         <v>104251</v>
       </c>
       <c r="E51" s="1">
-        <v>1.0270313310911661e-07</v>
+        <v>1.0207305223275398e-07</v>
       </c>
     </row>
     <row r="52">
@@ -977,13 +977,13 @@
         <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>43925.59375</v>
+        <v>43656.109375</v>
       </c>
       <c r="D52" s="2">
         <v>104251</v>
       </c>
       <c r="E52" s="1">
-        <v>5.2073200862423619e-08</v>
+        <v>5.175373374299852e-08</v>
       </c>
     </row>
     <row r="53">
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="C53" s="1">
-        <v>23001.462890625</v>
+        <v>23623.123046875</v>
       </c>
       <c r="D53" s="2">
         <v>104251</v>
       </c>
       <c r="E53" s="1">
-        <v>4.7807176883907232e-08</v>
+        <v>4.9099259769036507e-08</v>
       </c>
     </row>
     <row r="54">
@@ -1011,13 +1011,13 @@
         <v>4</v>
       </c>
       <c r="C54" s="1">
-        <v>7429.32666015625</v>
+        <v>7630.119140625</v>
       </c>
       <c r="D54" s="2">
         <v>104251</v>
       </c>
       <c r="E54" s="1">
-        <v>1.6127268409604767e-08</v>
+        <v>1.6563140192715764e-08</v>
       </c>
     </row>
     <row r="55">
@@ -1028,13 +1028,13 @@
         <v>4</v>
       </c>
       <c r="C55" s="1">
-        <v>15476.822265625</v>
+        <v>15895.115234375</v>
       </c>
       <c r="D55" s="2">
         <v>104251</v>
       </c>
       <c r="E55" s="1">
-        <v>4.0997580441626269e-08</v>
+        <v>4.2105622100052642e-08</v>
       </c>
     </row>
     <row r="56">
@@ -1062,13 +1062,13 @@
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>2499.342041015625</v>
+        <v>2566.891845703125</v>
       </c>
       <c r="D57" s="2">
         <v>104251</v>
       </c>
       <c r="E57" s="1">
-        <v>8.8404314979584342e-09</v>
+        <v>9.0793621509988043e-09</v>
       </c>
     </row>
     <row r="58">
@@ -1079,13 +1079,13 @@
         <v>4</v>
       </c>
       <c r="C58" s="1">
-        <v>2195.735107421875</v>
+        <v>2255.0791015625</v>
       </c>
       <c r="D58" s="2">
         <v>104251</v>
       </c>
       <c r="E58" s="1">
-        <v>1.093487345116273e-08</v>
+        <v>1.1230409491247428e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1096,13 +1096,13 @@
         <v>4</v>
       </c>
       <c r="C59" s="1">
-        <v>1161.571533203125</v>
+        <v>1192.96533203125</v>
       </c>
       <c r="D59" s="2">
         <v>104251</v>
       </c>
       <c r="E59" s="1">
-        <v>5.6146105542609348e-09</v>
+        <v>5.7663567254451209e-09</v>
       </c>
     </row>
     <row r="60">
@@ -1130,13 +1130,13 @@
         <v>5</v>
       </c>
       <c r="C61" s="1">
-        <v>44877.23046875</v>
+        <v>44731.3671875</v>
       </c>
       <c r="D61" s="2">
         <v>544681</v>
       </c>
       <c r="E61" s="1">
-        <v>5.4058197918038786e-09</v>
+        <v>5.3882494022161609e-09</v>
       </c>
     </row>
     <row r="62">
@@ -1147,13 +1147,13 @@
         <v>5</v>
       </c>
       <c r="C62" s="1">
-        <v>47972.98828125</v>
+        <v>47817.0625</v>
       </c>
       <c r="D62" s="2">
         <v>544681</v>
       </c>
       <c r="E62" s="1">
-        <v>4.8008970132684681e-09</v>
+        <v>4.7852926066127566e-09</v>
       </c>
     </row>
     <row r="63">
@@ -1164,13 +1164,13 @@
         <v>5</v>
       </c>
       <c r="C63" s="1">
-        <v>66631.796875</v>
+        <v>66415.2265625</v>
       </c>
       <c r="D63" s="2">
         <v>544681</v>
       </c>
       <c r="E63" s="1">
-        <v>5.8881428621759824e-09</v>
+        <v>5.8690048376774939e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1181,13 +1181,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="1">
-        <v>163463.53125</v>
+        <v>162932.21875</v>
       </c>
       <c r="D64" s="2">
         <v>544681</v>
       </c>
       <c r="E64" s="1">
-        <v>3.6906303790829043e-08</v>
+        <v>3.6786346413464344e-08</v>
       </c>
     </row>
     <row r="65">
@@ -1198,13 +1198,13 @@
         <v>5</v>
       </c>
       <c r="C65" s="1">
-        <v>273623.6875</v>
+        <v>272734.34375</v>
       </c>
       <c r="D65" s="2">
         <v>544681</v>
       </c>
       <c r="E65" s="1">
-        <v>6.4278907530024298e-08</v>
+        <v>6.4069986649428756e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1215,13 +1215,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="1">
-        <v>115499.359375</v>
+        <v>115123.953125</v>
       </c>
       <c r="D66" s="2">
         <v>544681</v>
       </c>
       <c r="E66" s="1">
-        <v>3.6656061297435372e-08</v>
+        <v>3.6536917491503118e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1232,13 +1232,13 @@
         <v>5</v>
       </c>
       <c r="C67" s="1">
-        <v>55231.31640625</v>
+        <v>55051.80078125</v>
       </c>
       <c r="D67" s="2">
         <v>544681</v>
       </c>
       <c r="E67" s="1">
-        <v>1.3030275525238721e-08</v>
+        <v>1.2987923625473741e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1249,13 +1249,13 @@
         <v>5</v>
       </c>
       <c r="C68" s="1">
-        <v>52338.1328125</v>
+        <v>52168.01953125</v>
       </c>
       <c r="D68" s="2">
         <v>544681</v>
       </c>
       <c r="E68" s="1">
-        <v>9.1911251942633498e-09</v>
+        <v>9.1612513131167361e-09</v>
       </c>
     </row>
     <row r="69">
@@ -1266,13 +1266,13 @@
         <v>5</v>
       </c>
       <c r="C69" s="1">
-        <v>36473.4140625</v>
+        <v>36354.8671875</v>
       </c>
       <c r="D69" s="2">
         <v>544681</v>
       </c>
       <c r="E69" s="1">
-        <v>3.6880762888102936e-09</v>
+        <v>3.6760889887688109e-09</v>
       </c>
     </row>
     <row r="70">
@@ -1283,13 +1283,13 @@
         <v>5</v>
       </c>
       <c r="C70" s="1">
-        <v>20131.896484375</v>
+        <v>20066.462890625</v>
       </c>
       <c r="D70" s="2">
         <v>544681</v>
       </c>
       <c r="E70" s="1">
-        <v>4.16264622771223e-09</v>
+        <v>4.149116605844938e-09</v>
       </c>
     </row>
     <row r="71">
@@ -1300,13 +1300,13 @@
         <v>5</v>
       </c>
       <c r="C71" s="1">
-        <v>22713.220703125</v>
+        <v>22508.556640625</v>
       </c>
       <c r="D71" s="2">
         <v>544681</v>
       </c>
       <c r="E71" s="1">
-        <v>5.1536317435818546e-09</v>
+        <v>5.1071933349078336e-09</v>
       </c>
     </row>
     <row r="72">
@@ -1317,13 +1317,13 @@
         <v>5</v>
       </c>
       <c r="C72" s="1">
-        <v>30743.435546875</v>
+        <v>31941.232421875</v>
       </c>
       <c r="D72" s="2">
         <v>544681</v>
       </c>
       <c r="E72" s="1">
-        <v>1.2230044532657303e-08</v>
+        <v>1.2706539820328544e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1334,13 +1334,13 @@
         <v>5</v>
       </c>
       <c r="C73" s="1">
-        <v>30960.205078125</v>
+        <v>32166.447265625</v>
       </c>
       <c r="D73" s="2">
         <v>544681</v>
       </c>
       <c r="E73" s="1">
-        <v>1.286332285133085e-08</v>
+        <v>1.336449173550136e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1351,13 +1351,13 @@
         <v>5</v>
       </c>
       <c r="C74" s="1">
-        <v>8482.7509765625</v>
+        <v>8813.248046875</v>
       </c>
       <c r="D74" s="2">
         <v>544681</v>
       </c>
       <c r="E74" s="1">
-        <v>4.300818812197349e-09</v>
+        <v>4.4683834410363943e-09</v>
       </c>
     </row>
     <row r="75">
@@ -1368,13 +1368,13 @@
         <v>5</v>
       </c>
       <c r="C75" s="1">
-        <v>4266.65673828125</v>
+        <v>4432.89013671875</v>
       </c>
       <c r="D75" s="2">
         <v>544681</v>
       </c>
       <c r="E75" s="1">
-        <v>4.0407472923220666e-09</v>
+        <v>4.1981791376599631e-09</v>
       </c>
     </row>
     <row r="76">
@@ -1385,13 +1385,13 @@
         <v>5</v>
       </c>
       <c r="C76" s="1">
-        <v>3409.45556640625</v>
+        <v>3542.29150390625</v>
       </c>
       <c r="D76" s="2">
         <v>544681</v>
       </c>
       <c r="E76" s="1">
-        <v>2.3081858646634146e-09</v>
+        <v>2.3981152619256818e-09</v>
       </c>
     </row>
     <row r="77">
@@ -1402,13 +1402,13 @@
         <v>5</v>
       </c>
       <c r="C77" s="1">
-        <v>489.93792724609375</v>
+        <v>509.02639770507813</v>
       </c>
       <c r="D77" s="2">
         <v>544681</v>
       </c>
       <c r="E77" s="1">
-        <v>4.6699566436103623e-10</v>
+        <v>4.8519033235550069e-10</v>
       </c>
     </row>
     <row r="78">
@@ -1436,13 +1436,13 @@
         <v>6</v>
       </c>
       <c r="C79" s="1">
-        <v>7158.97216796875</v>
+        <v>7155.044921875</v>
       </c>
       <c r="D79" s="2">
         <v>4579196</v>
       </c>
       <c r="E79" s="1">
-        <v>1.0257444893468914e-10</v>
+        <v>1.0251818144402236e-10</v>
       </c>
     </row>
     <row r="80">
@@ -1453,13 +1453,13 @@
         <v>6</v>
       </c>
       <c r="C80" s="1">
-        <v>14317.9443359375</v>
+        <v>14310.08984375</v>
       </c>
       <c r="D80" s="2">
         <v>4579196</v>
       </c>
       <c r="E80" s="1">
-        <v>1.7043519373594052e-10</v>
+        <v>1.7034169907947927e-10</v>
       </c>
     </row>
     <row r="81">
@@ -1470,13 +1470,13 @@
         <v>6</v>
       </c>
       <c r="C81" s="1">
-        <v>71589.7265625</v>
+        <v>71550.453125</v>
       </c>
       <c r="D81" s="2">
         <v>4579196</v>
       </c>
       <c r="E81" s="1">
-        <v>7.524896261656977e-10</v>
+        <v>7.5207678973399084e-10</v>
       </c>
     </row>
     <row r="82">
@@ -1487,13 +1487,13 @@
         <v>6</v>
       </c>
       <c r="C82" s="1">
-        <v>451015.28125</v>
+        <v>450767.84375</v>
       </c>
       <c r="D82" s="2">
         <v>4579196</v>
       </c>
       <c r="E82" s="1">
-        <v>1.2112225000748822e-08</v>
+        <v>1.2105579649812626e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1504,13 +1504,13 @@
         <v>6</v>
       </c>
       <c r="C83" s="1">
-        <v>918602.0625</v>
+        <v>918098.125</v>
       </c>
       <c r="D83" s="2">
         <v>4579196</v>
       </c>
       <c r="E83" s="1">
-        <v>2.5668187575433876e-08</v>
+        <v>2.565410639476795e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1521,13 +1521,13 @@
         <v>6</v>
       </c>
       <c r="C84" s="1">
-        <v>1617927.75</v>
+        <v>1617040.125</v>
       </c>
       <c r="D84" s="2">
         <v>4579196</v>
       </c>
       <c r="E84" s="1">
-        <v>6.1077088275851565e-08</v>
+        <v>6.1043579080433119e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1538,13 +1538,13 @@
         <v>6</v>
       </c>
       <c r="C85" s="1">
-        <v>1438953.375</v>
+        <v>1438164</v>
       </c>
       <c r="D85" s="2">
         <v>4579196</v>
       </c>
       <c r="E85" s="1">
-        <v>4.0380150778673851e-08</v>
+        <v>4.035799960888653e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1555,13 +1555,13 @@
         <v>6</v>
       </c>
       <c r="C86" s="1">
-        <v>1997705.5</v>
+        <v>1996609.5</v>
       </c>
       <c r="D86" s="2">
         <v>4579196</v>
       </c>
       <c r="E86" s="1">
-        <v>4.1728707600441339e-08</v>
+        <v>4.1705813913495149e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1572,13 +1572,13 @@
         <v>6</v>
       </c>
       <c r="C87" s="1">
-        <v>2160547.5</v>
+        <v>2159362.25</v>
       </c>
       <c r="D87" s="2">
         <v>4579196</v>
       </c>
       <c r="E87" s="1">
-        <v>2.5986050644632996e-08</v>
+        <v>2.5971795380996809e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1589,13 +1589,13 @@
         <v>6</v>
       </c>
       <c r="C88" s="1">
-        <v>2022521</v>
+        <v>2021411.5</v>
       </c>
       <c r="D88" s="2">
         <v>4579196</v>
       </c>
       <c r="E88" s="1">
-        <v>4.9742869379088006e-08</v>
+        <v>4.9715580985321139e-08</v>
       </c>
     </row>
     <row r="89">
@@ -1606,13 +1606,13 @@
         <v>6</v>
       </c>
       <c r="C89" s="1">
-        <v>1788136.125</v>
+        <v>1787155.25</v>
       </c>
       <c r="D89" s="2">
         <v>4579196</v>
       </c>
       <c r="E89" s="1">
-        <v>4.8260101692676471e-08</v>
+        <v>4.823362687034205e-08</v>
       </c>
     </row>
     <row r="90">
@@ -1623,13 +1623,13 @@
         <v>6</v>
       </c>
       <c r="C90" s="1">
-        <v>546312.9375</v>
+        <v>553164.1875</v>
       </c>
       <c r="D90" s="2">
         <v>4579196</v>
       </c>
       <c r="E90" s="1">
-        <v>2.5850569684848779e-08</v>
+        <v>2.6174758360753003e-08</v>
       </c>
     </row>
     <row r="91">
@@ -1878,13 +1878,13 @@
         <v>7</v>
       </c>
       <c r="C105" s="1">
-        <v>48481.296875</v>
+        <v>48326.015625</v>
       </c>
       <c r="D105" s="2">
         <v>3474730</v>
       </c>
       <c r="E105" s="1">
-        <v>9.154421665158452e-10</v>
+        <v>9.1251012301896139e-10</v>
       </c>
     </row>
     <row r="106">
@@ -1895,13 +1895,13 @@
         <v>7</v>
       </c>
       <c r="C106" s="1">
-        <v>67873.8203125</v>
+        <v>67656.4296875</v>
       </c>
       <c r="D106" s="2">
         <v>3474730</v>
       </c>
       <c r="E106" s="1">
-        <v>1.0647535075847259e-09</v>
+        <v>1.0613432355199848e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1912,13 +1912,13 @@
         <v>7</v>
       </c>
       <c r="C107" s="1">
-        <v>48481.296875</v>
+        <v>48326.015625</v>
       </c>
       <c r="D107" s="2">
         <v>3474730</v>
       </c>
       <c r="E107" s="1">
-        <v>6.7157140959395178e-10</v>
+        <v>6.6942040799489178e-10</v>
       </c>
     </row>
     <row r="108">
@@ -1929,13 +1929,13 @@
         <v>7</v>
       </c>
       <c r="C108" s="1">
-        <v>106658.859375</v>
+        <v>106317.2421875</v>
       </c>
       <c r="D108" s="2">
         <v>3474730</v>
       </c>
       <c r="E108" s="1">
-        <v>3.7748333348019969e-09</v>
+        <v>3.7627430060638289e-09</v>
       </c>
     </row>
     <row r="109">
@@ -1946,13 +1946,13 @@
         <v>7</v>
       </c>
       <c r="C109" s="1">
-        <v>475116.71875</v>
+        <v>473595</v>
       </c>
       <c r="D109" s="2">
         <v>3474730</v>
       </c>
       <c r="E109" s="1">
-        <v>1.7495899840014317e-08</v>
+        <v>1.7439862887158597e-08</v>
       </c>
     </row>
     <row r="110">
@@ -1963,13 +1963,13 @@
         <v>7</v>
       </c>
       <c r="C110" s="1">
-        <v>660152.8125</v>
+        <v>658038.4375</v>
       </c>
       <c r="D110" s="2">
         <v>3474730</v>
       </c>
       <c r="E110" s="1">
-        <v>3.2842169872537852e-08</v>
+        <v>3.2736981125935927e-08</v>
       </c>
     </row>
     <row r="111">
@@ -1980,13 +1980,13 @@
         <v>7</v>
       </c>
       <c r="C111" s="1">
-        <v>1202336.25</v>
+        <v>1198485.25</v>
       </c>
       <c r="D111" s="2">
         <v>3474730</v>
       </c>
       <c r="E111" s="1">
-        <v>4.4464695037049751e-08</v>
+        <v>4.4322277403807675e-08</v>
       </c>
     </row>
     <row r="112">
@@ -1997,13 +1997,13 @@
         <v>7</v>
       </c>
       <c r="C112" s="1">
-        <v>1561097.75</v>
+        <v>1556097.75</v>
       </c>
       <c r="D112" s="2">
         <v>3474730</v>
       </c>
       <c r="E112" s="1">
-        <v>4.2973599789775108e-08</v>
+        <v>4.2835960556431019e-08</v>
       </c>
     </row>
     <row r="113">
@@ -2014,13 +2014,13 @@
         <v>7</v>
       </c>
       <c r="C113" s="1">
-        <v>1688274.625</v>
+        <v>1682867.25</v>
       </c>
       <c r="D113" s="2">
         <v>3474730</v>
       </c>
       <c r="E113" s="1">
-        <v>2.6760099913758495e-08</v>
+        <v>2.6674388919900593e-08</v>
       </c>
     </row>
     <row r="114">
@@ -2031,13 +2031,13 @@
         <v>7</v>
       </c>
       <c r="C114" s="1">
-        <v>1396261.375</v>
+        <v>1391789.25</v>
       </c>
       <c r="D114" s="2">
         <v>3474730</v>
       </c>
       <c r="E114" s="1">
-        <v>4.5255635683361106e-08</v>
+        <v>4.5110688517979725e-08</v>
       </c>
     </row>
     <row r="115">
@@ -2048,13 +2048,13 @@
         <v>7</v>
       </c>
       <c r="C115" s="1">
-        <v>1134747.25</v>
+        <v>1131112.75</v>
       </c>
       <c r="D115" s="2">
         <v>3474730</v>
       </c>
       <c r="E115" s="1">
-        <v>4.0360351505341896e-08</v>
+        <v>4.0231082465425061e-08</v>
       </c>
     </row>
     <row r="116">
@@ -2065,13 +2065,13 @@
         <v>7</v>
       </c>
       <c r="C116" s="1">
-        <v>430752.9375</v>
+        <v>429373.28125</v>
       </c>
       <c r="D116" s="2">
         <v>3474730</v>
       </c>
       <c r="E116" s="1">
-        <v>2.6861178170634048e-08</v>
+        <v>2.6775143879831376e-08</v>
       </c>
     </row>
     <row r="117">
@@ -2082,13 +2082,13 @@
         <v>7</v>
       </c>
       <c r="C117" s="1">
-        <v>159302.140625</v>
+        <v>168426.171875</v>
       </c>
       <c r="D117" s="2">
         <v>3474730</v>
       </c>
       <c r="E117" s="1">
-        <v>1.0375096337611467e-08</v>
+        <v>1.0969329444776577e-08</v>
       </c>
     </row>
     <row r="118">
@@ -2099,13 +2099,13 @@
         <v>7</v>
       </c>
       <c r="C118" s="1">
-        <v>135480.875</v>
+        <v>139996.90625</v>
       </c>
       <c r="D118" s="2">
         <v>3474730</v>
       </c>
       <c r="E118" s="1">
-        <v>1.0767467806260811e-08</v>
+        <v>1.1126383370196891e-08</v>
       </c>
     </row>
     <row r="119">
@@ -2116,13 +2116,13 @@
         <v>7</v>
       </c>
       <c r="C119" s="1">
-        <v>84082.8125</v>
+        <v>86885.578125</v>
       </c>
       <c r="D119" s="2">
         <v>3474730</v>
       </c>
       <c r="E119" s="1">
-        <v>1.2482522571133359e-08</v>
+        <v>1.2898607515410276e-08</v>
       </c>
     </row>
     <row r="120">
@@ -2133,13 +2133,13 @@
         <v>7</v>
       </c>
       <c r="C120" s="1">
-        <v>105554.7109375</v>
+        <v>109073.203125</v>
       </c>
       <c r="D120" s="2">
         <v>3474730</v>
       </c>
       <c r="E120" s="1">
-        <v>1.1201715111042176e-08</v>
+        <v>1.1575106206862529e-08</v>
       </c>
     </row>
     <row r="121">
@@ -2150,13 +2150,13 @@
         <v>7</v>
       </c>
       <c r="C121" s="1">
-        <v>85144.078125</v>
+        <v>87982.21875</v>
       </c>
       <c r="D121" s="2">
         <v>3474730</v>
       </c>
       <c r="E121" s="1">
-        <v>1.2721766751155883e-08</v>
+        <v>1.3145825761284868e-08</v>
       </c>
     </row>
     <row r="122">
@@ -2167,13 +2167,13 @@
         <v>7</v>
       </c>
       <c r="C122" s="1">
-        <v>41687.03515625</v>
+        <v>43076.60546875</v>
       </c>
       <c r="D122" s="2">
         <v>3474730</v>
       </c>
       <c r="E122" s="1">
-        <v>6.0455227490763264e-09</v>
+        <v>6.2470406625436681e-09</v>
       </c>
     </row>
     <row r="123">
@@ -2184,13 +2184,13 @@
         <v>7</v>
       </c>
       <c r="C123" s="1">
-        <v>68333.2578125</v>
+        <v>70611.03125</v>
       </c>
       <c r="D123" s="2">
         <v>3474730</v>
       </c>
       <c r="E123" s="1">
-        <v>2.1717852405345184e-08</v>
+        <v>2.2441779989890165e-08</v>
       </c>
     </row>
     <row r="124">
@@ -2201,13 +2201,13 @@
         <v>7</v>
       </c>
       <c r="C124" s="1">
-        <v>34474.109375</v>
+        <v>35623.24609375</v>
       </c>
       <c r="D124" s="2">
         <v>3474730</v>
       </c>
       <c r="E124" s="1">
-        <v>1.0854630971834922e-08</v>
+        <v>1.1216451767381841e-08</v>
       </c>
     </row>
     <row r="125">
@@ -2218,13 +2218,13 @@
         <v>7</v>
       </c>
       <c r="C125" s="1">
-        <v>8072.630859375</v>
+        <v>8341.71875</v>
       </c>
       <c r="D125" s="2">
         <v>3474730</v>
       </c>
       <c r="E125" s="1">
-        <v>5.534871672097097e-09</v>
+        <v>5.7193676461508858e-09</v>
       </c>
     </row>
     <row r="126">
@@ -2235,13 +2235,13 @@
         <v>7</v>
       </c>
       <c r="C126" s="1">
-        <v>1697.7479248046875</v>
+        <v>1754.3394775390625</v>
       </c>
       <c r="D126" s="2">
         <v>3474730</v>
       </c>
       <c r="E126" s="1">
-        <v>1.1496621432627308e-09</v>
+        <v>1.1879841554929271e-09</v>
       </c>
     </row>
     <row r="127">
@@ -2252,13 +2252,13 @@
         <v>7</v>
       </c>
       <c r="C127" s="1">
-        <v>9251.1708984375</v>
+        <v>9559.5439453125</v>
       </c>
       <c r="D127" s="2">
         <v>3474730</v>
       </c>
       <c r="E127" s="1">
-        <v>1.8291393288905056e-08</v>
+        <v>1.8901108234103958e-08</v>
       </c>
     </row>
     <row r="128">
@@ -2303,13 +2303,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="1">
-        <v>2743.69287109375</v>
+        <v>2711.146240234375</v>
       </c>
       <c r="D130" s="2">
         <v>472523</v>
       </c>
       <c r="E130" s="1">
-        <v>3.1650485010636942e-10</v>
+        <v>3.1275035339284329e-10</v>
       </c>
     </row>
     <row r="131">
@@ -2320,13 +2320,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="1">
-        <v>2743.69287109375</v>
+        <v>2711.146240234375</v>
       </c>
       <c r="D131" s="2">
         <v>472523</v>
       </c>
       <c r="E131" s="1">
-        <v>2.7948054981408177e-10</v>
+        <v>2.7616525732909736e-10</v>
       </c>
     </row>
     <row r="132">
@@ -2337,13 +2337,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="1">
-        <v>10974.771484375</v>
+        <v>10844.5849609375</v>
       </c>
       <c r="D132" s="2">
         <v>472523</v>
       </c>
       <c r="E132" s="1">
-        <v>2.8562381348962163e-09</v>
+        <v>2.8223565706753106e-09</v>
       </c>
     </row>
     <row r="133">
@@ -2354,13 +2354,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="1">
-        <v>32924.3203125</v>
+        <v>32533.7578125</v>
       </c>
       <c r="D133" s="2">
         <v>472523</v>
       </c>
       <c r="E133" s="1">
-        <v>8.9156060312234331e-09</v>
+        <v>8.809845297719221e-09</v>
       </c>
     </row>
     <row r="134">
@@ -2371,13 +2371,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="1">
-        <v>97016.65625</v>
+        <v>95865.8125</v>
       </c>
       <c r="D134" s="2">
         <v>472523</v>
       </c>
       <c r="E134" s="1">
-        <v>3.5492107031132036e-08</v>
+        <v>3.5071089143912104e-08</v>
       </c>
     </row>
     <row r="135">
@@ -2388,13 +2388,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="1">
-        <v>161896.34375</v>
+        <v>159975.875</v>
       </c>
       <c r="D135" s="2">
         <v>472523</v>
       </c>
       <c r="E135" s="1">
-        <v>4.4027551382441743e-08</v>
+        <v>4.3505281155375997e-08</v>
       </c>
     </row>
     <row r="136">
@@ -2405,13 +2405,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="1">
-        <v>159146.96875</v>
+        <v>157259.109375</v>
       </c>
       <c r="D136" s="2">
         <v>472523</v>
       </c>
       <c r="E136" s="1">
-        <v>3.2215741185837032e-08</v>
+        <v>3.1833586433549499e-08</v>
       </c>
     </row>
     <row r="137">
@@ -2422,13 +2422,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="1">
-        <v>244191.75</v>
+        <v>241295.046875</v>
       </c>
       <c r="D137" s="2">
         <v>472523</v>
       </c>
       <c r="E137" s="1">
-        <v>2.846254432142814e-08</v>
+        <v>2.8124910400606495e-08</v>
       </c>
     </row>
     <row r="138">
@@ -2439,13 +2439,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="1">
-        <v>224992.8125</v>
+        <v>222323.859375</v>
       </c>
       <c r="D138" s="2">
         <v>472523</v>
       </c>
       <c r="E138" s="1">
-        <v>5.362566923849954e-08</v>
+        <v>5.2989538090741917e-08</v>
       </c>
     </row>
     <row r="139">
@@ -2456,13 +2456,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="1">
-        <v>223993.828125</v>
+        <v>221336.734375</v>
       </c>
       <c r="D139" s="2">
         <v>472523</v>
       </c>
       <c r="E139" s="1">
-        <v>5.8585477802353125e-08</v>
+        <v>5.7890517268788244e-08</v>
       </c>
     </row>
     <row r="140">
@@ -2473,13 +2473,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="1">
-        <v>91875.7265625</v>
+        <v>90785.859375</v>
       </c>
       <c r="D140" s="2">
         <v>472523</v>
       </c>
       <c r="E140" s="1">
-        <v>4.2130412936103312e-08</v>
+        <v>4.1630642044765409e-08</v>
       </c>
     </row>
     <row r="141">
@@ -2490,13 +2490,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="1">
-        <v>39770.6875</v>
+        <v>39298.9140625</v>
       </c>
       <c r="D141" s="2">
         <v>472523</v>
       </c>
       <c r="E141" s="1">
-        <v>1.9047226018642505e-08</v>
+        <v>1.882128053409815e-08</v>
       </c>
     </row>
     <row r="142">
@@ -2507,13 +2507,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="1">
-        <v>64642.28125</v>
+        <v>68759.625</v>
       </c>
       <c r="D142" s="2">
         <v>472523</v>
       </c>
       <c r="E142" s="1">
-        <v>3.7778992378889598e-08</v>
+        <v>4.0185298644246359e-08</v>
       </c>
     </row>
     <row r="143">
@@ -2524,13 +2524,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="1">
-        <v>91707.21875</v>
+        <v>97548.4453125</v>
       </c>
       <c r="D143" s="2">
         <v>472523</v>
       </c>
       <c r="E143" s="1">
-        <v>1.0011444828705862e-07</v>
+        <v>1.064911714365735e-07</v>
       </c>
     </row>
     <row r="144">
@@ -2541,13 +2541,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="1">
-        <v>11961.7919921875</v>
+        <v>12723.689453125</v>
       </c>
       <c r="D144" s="2">
         <v>472523</v>
       </c>
       <c r="E144" s="1">
-        <v>9.3347196639115282e-09</v>
+        <v>9.9292876143408648e-09</v>
       </c>
     </row>
     <row r="145">
@@ -2558,13 +2558,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="1">
-        <v>9155.42578125</v>
+        <v>9738.57421875</v>
       </c>
       <c r="D145" s="2">
         <v>472523</v>
       </c>
       <c r="E145" s="1">
-        <v>1.0059343580337554e-08</v>
+        <v>1.0700066610525027e-08</v>
       </c>
     </row>
     <row r="146">
@@ -2575,13 +2575,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="1">
-        <v>32059.83984375</v>
+        <v>34101.8671875</v>
       </c>
       <c r="D146" s="2">
         <v>472523</v>
       </c>
       <c r="E146" s="1">
-        <v>3.4189465480949366e-08</v>
+        <v>3.6367136857506921e-08</v>
       </c>
     </row>
     <row r="147">
@@ -2592,13 +2592,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="1">
-        <v>2401.87548828125</v>
+        <v>2554.861083984375</v>
       </c>
       <c r="D147" s="2">
         <v>472523</v>
       </c>
       <c r="E147" s="1">
-        <v>5.6134954462550013e-09</v>
+        <v>5.9710423272463231e-09</v>
       </c>
     </row>
     <row r="148">
@@ -2609,13 +2609,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="1">
-        <v>5276.40576171875</v>
+        <v>5612.482421875</v>
       </c>
       <c r="D148" s="2">
         <v>472523</v>
       </c>
       <c r="E148" s="1">
-        <v>1.2216823108701647e-08</v>
+        <v>1.2994964215806704e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2626,13 +2626,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="1">
-        <v>23426.103515625</v>
+        <v>24918.2109375</v>
       </c>
       <c r="D149" s="2">
         <v>472523</v>
       </c>
       <c r="E149" s="1">
-        <v>1.181110818038178e-07</v>
+        <v>1.2563407381094294e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2643,13 +2643,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="1">
-        <v>4.7834291458129883</v>
+        <v>5.0881061553955078</v>
       </c>
       <c r="D150" s="2">
         <v>472523</v>
       </c>
       <c r="E150" s="1">
-        <v>2.3819600805663477e-11</v>
+        <v>2.5336772610518032e-11</v>
       </c>
     </row>
     <row r="151">
@@ -2677,13 +2677,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="1">
-        <v>36.385322570800781</v>
+        <v>38.702857971191406</v>
       </c>
       <c r="D152" s="2">
         <v>472523</v>
       </c>
       <c r="E152" s="1">
-        <v>1.3476908478082805e-09</v>
+        <v>1.4335309606039459e-09</v>
       </c>
     </row>
     <row r="153">
@@ -2711,13 +2711,13 @@
         <v>9</v>
       </c>
       <c r="C154" s="1">
-        <v>64881.08203125</v>
+        <v>64591.11328125</v>
       </c>
       <c r="D154" s="2">
         <v>785624</v>
       </c>
       <c r="E154" s="1">
-        <v>5.4185251840976889e-09</v>
+        <v>5.3943085553953551e-09</v>
       </c>
     </row>
     <row r="155">
@@ -2728,13 +2728,13 @@
         <v>9</v>
       </c>
       <c r="C155" s="1">
-        <v>69356.765625</v>
+        <v>69046.7890625</v>
       </c>
       <c r="D155" s="2">
         <v>785624</v>
       </c>
       <c r="E155" s="1">
-        <v>4.8121808760015483e-09</v>
+        <v>4.7906736355685098e-09</v>
       </c>
     </row>
     <row r="156">
@@ -2745,13 +2745,13 @@
         <v>9</v>
       </c>
       <c r="C156" s="1">
-        <v>96332.6640625</v>
+        <v>95902.125</v>
       </c>
       <c r="D156" s="2">
         <v>785624</v>
       </c>
       <c r="E156" s="1">
-        <v>5.90198157013333e-09</v>
+        <v>5.8756040033358659e-09</v>
       </c>
     </row>
     <row r="157">
@@ -2762,13 +2762,13 @@
         <v>9</v>
       </c>
       <c r="C157" s="1">
-        <v>236326.765625</v>
+        <v>235270.5625</v>
       </c>
       <c r="D157" s="2">
         <v>785624</v>
       </c>
       <c r="E157" s="1">
-        <v>3.6993043295296957e-08</v>
+        <v>3.6827714211540297e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2779,13 +2779,13 @@
         <v>9</v>
       </c>
       <c r="C158" s="1">
-        <v>395590.40625</v>
+        <v>393822.40625</v>
       </c>
       <c r="D158" s="2">
         <v>785624</v>
       </c>
       <c r="E158" s="1">
-        <v>6.4429983126501611e-08</v>
+        <v>6.4142028577407473e-08</v>
       </c>
     </row>
     <row r="159">
@@ -2796,13 +2796,13 @@
         <v>9</v>
       </c>
       <c r="C159" s="1">
-        <v>166982.75</v>
+        <v>166236.46875</v>
       </c>
       <c r="D159" s="2">
         <v>785624</v>
       </c>
       <c r="E159" s="1">
-        <v>3.6742214604146284e-08</v>
+        <v>3.6578004625198446e-08</v>
       </c>
     </row>
     <row r="160">
@@ -2813,13 +2813,13 @@
         <v>9</v>
       </c>
       <c r="C160" s="1">
-        <v>79850.4609375</v>
+        <v>79493.59375</v>
       </c>
       <c r="D160" s="2">
         <v>785624</v>
       </c>
       <c r="E160" s="1">
-        <v>1.3060900805328401e-08</v>
+        <v>1.300252883140729e-08</v>
       </c>
     </row>
     <row r="161">
@@ -2830,13 +2830,13 @@
         <v>9</v>
       </c>
       <c r="C161" s="1">
-        <v>75667.65625</v>
+        <v>75329.4765625</v>
       </c>
       <c r="D161" s="2">
         <v>785624</v>
       </c>
       <c r="E161" s="1">
-        <v>9.2127274697872963e-09</v>
+        <v>9.1715532946068379e-09</v>
       </c>
     </row>
     <row r="162">
@@ -2847,13 +2847,13 @@
         <v>9</v>
       </c>
       <c r="C162" s="1">
-        <v>52731.296875</v>
+        <v>52495.62890625</v>
       </c>
       <c r="D162" s="2">
         <v>785624</v>
       </c>
       <c r="E162" s="1">
-        <v>3.696744244052752e-09</v>
+        <v>3.6802225711340952e-09</v>
       </c>
     </row>
     <row r="163">
@@ -2864,13 +2864,13 @@
         <v>9</v>
       </c>
       <c r="C163" s="1">
-        <v>29105.61328125</v>
+        <v>28975.53125</v>
       </c>
       <c r="D163" s="2">
         <v>785624</v>
       </c>
       <c r="E163" s="1">
-        <v>4.1724299570944368e-09</v>
+        <v>4.1537817629944129e-09</v>
       </c>
     </row>
     <row r="164">
@@ -2881,13 +2881,13 @@
         <v>9</v>
       </c>
       <c r="C164" s="1">
-        <v>31016.80859375</v>
+        <v>30609.943359375</v>
       </c>
       <c r="D164" s="2">
         <v>785624</v>
       </c>
       <c r="E164" s="1">
-        <v>4.8793191709251005e-09</v>
+        <v>4.8153143694662504e-09</v>
       </c>
     </row>
     <row r="165">
@@ -2898,13 +2898,13 @@
         <v>9</v>
       </c>
       <c r="C165" s="1">
-        <v>62505.99609375</v>
+        <v>64887.1796875</v>
       </c>
       <c r="D165" s="2">
         <v>785624</v>
       </c>
       <c r="E165" s="1">
-        <v>1.7239505822885803e-08</v>
+        <v>1.7896249815407828e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2915,13 +2915,13 @@
         <v>9</v>
       </c>
       <c r="C166" s="1">
-        <v>62946.72265625</v>
+        <v>65344.69140625</v>
       </c>
       <c r="D166" s="2">
         <v>785624</v>
       </c>
       <c r="E166" s="1">
-        <v>1.8132176649032772e-08</v>
+        <v>1.8822927216888274e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2932,13 +2932,13 @@
         <v>9</v>
       </c>
       <c r="C167" s="1">
-        <v>17246.69921875</v>
+        <v>17903.716796875</v>
       </c>
       <c r="D167" s="2">
         <v>785624</v>
       </c>
       <c r="E167" s="1">
-        <v>6.0624461006852925e-09</v>
+        <v>6.293396470624657e-09</v>
       </c>
     </row>
     <row r="168">
@@ -2949,13 +2949,13 @@
         <v>9</v>
       </c>
       <c r="C168" s="1">
-        <v>8674.7509765625</v>
+        <v>9005.2177734375</v>
       </c>
       <c r="D168" s="2">
         <v>785624</v>
       </c>
       <c r="E168" s="1">
-        <v>5.6958491256864363e-09</v>
+        <v>5.912833778154436e-09</v>
       </c>
     </row>
     <row r="169">
@@ -2966,13 +2966,13 @@
         <v>9</v>
       </c>
       <c r="C169" s="1">
-        <v>6931.9326171875</v>
+        <v>7196.00634765625</v>
       </c>
       <c r="D169" s="2">
         <v>785624</v>
       </c>
       <c r="E169" s="1">
-        <v>3.2536255911708167e-09</v>
+        <v>3.3775733321306234e-09</v>
       </c>
     </row>
     <row r="170">
@@ -2983,13 +2983,13 @@
         <v>9</v>
       </c>
       <c r="C170" s="1">
-        <v>996.116943359375</v>
+        <v>1034.0643310546875</v>
       </c>
       <c r="D170" s="2">
         <v>785624</v>
       </c>
       <c r="E170" s="1">
-        <v>6.5827843176435863e-10</v>
+        <v>6.8335576086653305e-10</v>
       </c>
     </row>
   </sheetData>

--- a/rec_selectivity_by_state_cdf_star_raw.xlsx
+++ b/rec_selectivity_by_state_cdf_star_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="13">
   <si>
     <t>l_in_bin</t>
   </si>
@@ -99,7 +99,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E209"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -161,13 +161,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>8938.6943359375</v>
+        <v>8320.6416015625</v>
       </c>
       <c r="D4" s="2">
         <v>413071</v>
       </c>
       <c r="E4" s="1">
-        <v>1.1795523446878065e-09</v>
+        <v>1.0979939180089104e-09</v>
       </c>
     </row>
     <row r="5">
@@ -178,13 +178,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>14301.9091796875</v>
+        <v>13313.025390625</v>
       </c>
       <c r="D5" s="2">
         <v>413071</v>
       </c>
       <c r="E5" s="1">
-        <v>1.6665115953884424e-09</v>
+        <v>1.5512832129971343e-09</v>
       </c>
     </row>
     <row r="6">
@@ -195,13 +195,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>14301.9091796875</v>
+        <v>13313.025390625</v>
       </c>
       <c r="D6" s="2">
         <v>413071</v>
       </c>
       <c r="E6" s="1">
-        <v>4.2578585102148736e-09</v>
+        <v>3.9634553417045026e-09</v>
       </c>
     </row>
     <row r="7">
@@ -212,13 +212,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>23240.6015625</v>
+        <v>21633.666015625</v>
       </c>
       <c r="D7" s="2">
         <v>413071</v>
       </c>
       <c r="E7" s="1">
-        <v>7.199124407719637e-09</v>
+        <v>6.7013519178260594e-09</v>
       </c>
     </row>
     <row r="8">
@@ -229,13 +229,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>58995.37890625</v>
+        <v>54916.234375</v>
       </c>
       <c r="D8" s="2">
         <v>413071</v>
       </c>
       <c r="E8" s="1">
-        <v>2.4688899813440912e-08</v>
+        <v>2.298182444349095e-08</v>
       </c>
     </row>
     <row r="9">
@@ -246,13 +246,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>169835.171875</v>
+        <v>158092.1875</v>
       </c>
       <c r="D9" s="2">
         <v>413071</v>
       </c>
       <c r="E9" s="1">
-        <v>5.2833986075029316e-08</v>
+        <v>4.9180862049524876e-08</v>
       </c>
     </row>
     <row r="10">
@@ -263,13 +263,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>140988.84375</v>
+        <v>131240.390625</v>
       </c>
       <c r="D10" s="2">
         <v>413071</v>
       </c>
       <c r="E10" s="1">
-        <v>3.2647712089328706e-08</v>
+        <v>3.0390335581387262e-08</v>
       </c>
     </row>
     <row r="11">
@@ -280,13 +280,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>159612.5625</v>
+        <v>148576.40625</v>
       </c>
       <c r="D11" s="2">
         <v>413071</v>
       </c>
       <c r="E11" s="1">
-        <v>2.1281785222981853e-08</v>
+        <v>1.9810290297073152e-08</v>
       </c>
     </row>
     <row r="12">
@@ -297,13 +297,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>175775.75</v>
+        <v>163622.015625</v>
       </c>
       <c r="D12" s="2">
         <v>413071</v>
       </c>
       <c r="E12" s="1">
-        <v>4.7924906709795323e-08</v>
+        <v>4.4611216054590841e-08</v>
       </c>
     </row>
     <row r="13">
@@ -314,13 +314,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>183104.484375</v>
+        <v>170444</v>
       </c>
       <c r="D13" s="2">
         <v>413071</v>
       </c>
       <c r="E13" s="1">
-        <v>5.4783672709390885e-08</v>
+        <v>5.0995737410630682e-08</v>
       </c>
     </row>
     <row r="14">
@@ -331,13 +331,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>113732.71875</v>
+        <v>105868.84375</v>
       </c>
       <c r="D14" s="2">
         <v>413071</v>
       </c>
       <c r="E14" s="1">
-        <v>5.9659356566044153e-08</v>
+        <v>5.553430426630257e-08</v>
       </c>
     </row>
     <row r="15">
@@ -348,13 +348,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>73487.625</v>
       </c>
       <c r="D15" s="2">
         <v>413071</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>4.0260676570369469e-08</v>
       </c>
     </row>
     <row r="16">
@@ -512,16 +512,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>401288</v>
+        <v>413071</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -529,16 +529,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>401288</v>
+        <v>413071</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -546,24 +546,24 @@
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>5154.81591796875</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>401288</v>
+        <v>413071</v>
       </c>
       <c r="E27" s="1">
-        <v>7.0020439446594196e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -580,288 +580,288 @@
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="1">
-        <v>10309.6318359375</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2">
         <v>401288</v>
       </c>
       <c r="E29" s="1">
-        <v>3.1594309390925446e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>20619.263671875</v>
+        <v>5154.81591796875</v>
       </c>
       <c r="D30" s="2">
         <v>401288</v>
       </c>
       <c r="E30" s="1">
-        <v>6.5746705857350207e-09</v>
+        <v>7.0020439446594196e-10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>56702.98046875</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
         <v>401288</v>
       </c>
       <c r="E31" s="1">
-        <v>2.4426325850868125e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>92788.6328125</v>
+        <v>10309.6318359375</v>
       </c>
       <c r="D32" s="2">
         <v>401288</v>
       </c>
       <c r="E32" s="1">
-        <v>2.9713174143353172e-08</v>
+        <v>3.1594309390925446e-09</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>114051.140625</v>
+        <v>20619.263671875</v>
       </c>
       <c r="D33" s="2">
         <v>401288</v>
       </c>
       <c r="E33" s="1">
-        <v>2.7185425466313973e-08</v>
+        <v>6.5746705857350207e-09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>98321.1171875</v>
+        <v>56702.98046875</v>
       </c>
       <c r="D34" s="2">
         <v>401288</v>
       </c>
       <c r="E34" s="1">
-        <v>1.3494485529008671e-08</v>
+        <v>2.4426325850868125e-08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>40778.49609375</v>
+        <v>92788.6328125</v>
       </c>
       <c r="D35" s="2">
         <v>401288</v>
       </c>
       <c r="E35" s="1">
-        <v>1.1444638126079099e-08</v>
+        <v>2.9713174143353172e-08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>26951.21875</v>
+        <v>114051.140625</v>
       </c>
       <c r="D36" s="2">
         <v>401288</v>
       </c>
       <c r="E36" s="1">
-        <v>8.3004021433907837e-09</v>
+        <v>2.7185425466313973e-08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>30696.376953125</v>
+        <v>98321.1171875</v>
       </c>
       <c r="D37" s="2">
         <v>401288</v>
       </c>
       <c r="E37" s="1">
-        <v>1.6574819738934821e-08</v>
+        <v>1.3494485529008671e-08</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>20604.884765625</v>
+        <v>40778.49609375</v>
       </c>
       <c r="D38" s="2">
         <v>401288</v>
       </c>
       <c r="E38" s="1">
-        <v>1.1619985862409976e-08</v>
+        <v>1.1444638126079099e-08</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>7973.3330078125</v>
+        <v>26951.21875</v>
       </c>
       <c r="D39" s="2">
         <v>401288</v>
       </c>
       <c r="E39" s="1">
-        <v>5.4870685772812067e-09</v>
+        <v>8.3004021433907837e-09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>545.93988037109375</v>
+        <v>30696.376953125</v>
       </c>
       <c r="D40" s="2">
         <v>401288</v>
       </c>
       <c r="E40" s="1">
-        <v>7.0178624023142788e-10</v>
+        <v>1.6574819738934821e-08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="1">
-        <v>6439.92626953125</v>
+        <v>20604.884765625</v>
       </c>
       <c r="D41" s="2">
         <v>401288</v>
       </c>
       <c r="E41" s="1">
-        <v>5.9176965550022942e-09</v>
+        <v>1.1619985862409976e-08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>7973.3330078125</v>
       </c>
       <c r="D42" s="2">
         <v>401288</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>5.4870685772812067e-09</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="1">
-        <v>12.90007209777832</v>
+        <v>545.93988037109375</v>
       </c>
       <c r="D43" s="2">
         <v>401288</v>
       </c>
       <c r="E43" s="1">
-        <v>1.6199062924382446e-11</v>
+        <v>7.0178624023142788e-10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="1">
-        <v>251.96794128417969</v>
+        <v>6439.92626953125</v>
       </c>
       <c r="D44" s="2">
         <v>401288</v>
       </c>
       <c r="E44" s="1">
-        <v>6.9341771213871084e-10</v>
+        <v>5.9176965550022942e-09</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
       </c>
       <c r="D45" s="2">
-        <v>104251</v>
+        <v>401288</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -869,177 +869,177 @@
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1">
-        <v>16736.26953125</v>
+        <v>12.90007209777832</v>
       </c>
       <c r="D46" s="2">
-        <v>104251</v>
+        <v>401288</v>
       </c>
       <c r="E46" s="1">
-        <v>2.0541655487704702e-08</v>
+        <v>1.6199062924382446e-11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1">
-        <v>16736.26953125</v>
+        <v>251.96794128417969</v>
       </c>
       <c r="D47" s="2">
-        <v>104251</v>
+        <v>401288</v>
       </c>
       <c r="E47" s="1">
-        <v>2.775152729839192e-08</v>
+        <v>6.9341771213871084e-10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1">
-        <v>17844.982421875</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2">
-        <v>104251</v>
+        <v>401288</v>
       </c>
       <c r="E48" s="1">
-        <v>2.1996132915091948e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1">
-        <v>3712.0380859375</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2">
-        <v>104251</v>
+        <v>401288</v>
       </c>
       <c r="E49" s="1">
-        <v>3.4058449394080981e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1">
-        <v>33472.5390625</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2">
-        <v>104251</v>
+        <v>401288</v>
       </c>
       <c r="E50" s="1">
-        <v>1.7683740693996697e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1">
-        <v>94485.3125</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2">
-        <v>104251</v>
+        <v>401288</v>
       </c>
       <c r="E51" s="1">
-        <v>1.0207305223275398e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1">
-        <v>43656.109375</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2">
-        <v>104251</v>
+        <v>401288</v>
       </c>
       <c r="E52" s="1">
-        <v>5.175373374299852e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1">
-        <v>23623.123046875</v>
+        <v>0</v>
       </c>
       <c r="D53" s="2">
-        <v>104251</v>
+        <v>401288</v>
       </c>
       <c r="E53" s="1">
-        <v>4.9099259769036507e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="1">
-        <v>7630.119140625</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2">
         <v>104251</v>
       </c>
       <c r="E54" s="1">
-        <v>1.6563140192715764e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="1">
-        <v>15895.115234375</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2">
         <v>104251</v>
       </c>
       <c r="E55" s="1">
-        <v>4.2105622100052642e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -1056,730 +1056,730 @@
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>2566.891845703125</v>
+        <v>0</v>
       </c>
       <c r="D57" s="2">
         <v>104251</v>
       </c>
       <c r="E57" s="1">
-        <v>9.0793621509988043e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="1">
-        <v>2255.0791015625</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2">
         <v>104251</v>
       </c>
       <c r="E58" s="1">
-        <v>1.1230409491247428e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="1">
-        <v>1192.96533203125</v>
+        <v>16736.26953125</v>
       </c>
       <c r="D59" s="2">
         <v>104251</v>
       </c>
       <c r="E59" s="1">
-        <v>5.7663567254451209e-09</v>
+        <v>2.0541655487704702e-08</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="1">
-        <v>40255.171875</v>
+        <v>16736.26953125</v>
       </c>
       <c r="D60" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E60" s="1">
-        <v>5.951897463774003e-08</v>
+        <v>2.775152729839192e-08</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="1">
-        <v>44731.3671875</v>
+        <v>17844.982421875</v>
       </c>
       <c r="D61" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E61" s="1">
-        <v>5.3882494022161609e-09</v>
+        <v>2.1996132915091948e-08</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" s="1">
-        <v>47817.0625</v>
+        <v>3712.0380859375</v>
       </c>
       <c r="D62" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E62" s="1">
-        <v>4.7852926066127566e-09</v>
+        <v>3.4058449394080981e-09</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" s="1">
-        <v>66415.2265625</v>
+        <v>33472.5390625</v>
       </c>
       <c r="D63" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E63" s="1">
-        <v>5.8690048376774939e-09</v>
+        <v>1.7683740693996697e-08</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" s="1">
-        <v>162932.21875</v>
+        <v>94485.3125</v>
       </c>
       <c r="D64" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E64" s="1">
-        <v>3.6786346413464344e-08</v>
+        <v>1.0207305223275398e-07</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" s="1">
-        <v>272734.34375</v>
+        <v>43656.109375</v>
       </c>
       <c r="D65" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E65" s="1">
-        <v>6.4069986649428756e-08</v>
+        <v>5.175373374299852e-08</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" s="1">
-        <v>115123.953125</v>
+        <v>23623.123046875</v>
       </c>
       <c r="D66" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E66" s="1">
-        <v>3.6536917491503118e-08</v>
+        <v>4.9099259769036507e-08</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" s="1">
-        <v>55051.80078125</v>
+        <v>7630.119140625</v>
       </c>
       <c r="D67" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E67" s="1">
-        <v>1.2987923625473741e-08</v>
+        <v>1.6563140192715764e-08</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1">
-        <v>52168.01953125</v>
+        <v>15895.115234375</v>
       </c>
       <c r="D68" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E68" s="1">
-        <v>9.1612513131167361e-09</v>
+        <v>4.2105622100052642e-08</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="1">
-        <v>36354.8671875</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E69" s="1">
-        <v>3.6760889887688109e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="1">
-        <v>20066.462890625</v>
+        <v>2566.891845703125</v>
       </c>
       <c r="D70" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E70" s="1">
-        <v>4.149116605844938e-09</v>
+        <v>9.0793621509988043e-09</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1">
-        <v>22508.556640625</v>
+        <v>2255.0791015625</v>
       </c>
       <c r="D71" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E71" s="1">
-        <v>5.1071933349078336e-09</v>
+        <v>1.1230409491247428e-08</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" s="1">
-        <v>31941.232421875</v>
+        <v>1192.96533203125</v>
       </c>
       <c r="D72" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E72" s="1">
-        <v>1.2706539820328544e-08</v>
+        <v>5.7663567254451209e-09</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1">
-        <v>32166.447265625</v>
+        <v>0</v>
       </c>
       <c r="D73" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E73" s="1">
-        <v>1.336449173550136e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="1">
-        <v>8813.248046875</v>
+        <v>0</v>
       </c>
       <c r="D74" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E74" s="1">
-        <v>4.4683834410363943e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1">
-        <v>4432.89013671875</v>
+        <v>0</v>
       </c>
       <c r="D75" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E75" s="1">
-        <v>4.1981791376599631e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1">
-        <v>3542.29150390625</v>
+        <v>0</v>
       </c>
       <c r="D76" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E76" s="1">
-        <v>2.3981152619256818e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" s="1">
-        <v>509.02639770507813</v>
+        <v>0</v>
       </c>
       <c r="D77" s="2">
-        <v>544681</v>
+        <v>104251</v>
       </c>
       <c r="E77" s="1">
-        <v>4.8519033235550069e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1">
-        <v>7433.5439453125</v>
+        <v>0</v>
       </c>
       <c r="D78" s="2">
-        <v>4579196</v>
+        <v>104251</v>
       </c>
       <c r="E78" s="1">
-        <v>1.3073223614767926e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79" s="1">
-        <v>7155.044921875</v>
+        <v>0</v>
       </c>
       <c r="D79" s="2">
-        <v>4579196</v>
+        <v>104251</v>
       </c>
       <c r="E79" s="1">
-        <v>1.0251818144402236e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="1">
-        <v>14310.08984375</v>
+        <v>40255.171875</v>
       </c>
       <c r="D80" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E80" s="1">
-        <v>1.7034169907947927e-10</v>
+        <v>5.951897463774003e-08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
-        <v>71550.453125</v>
+        <v>44731.3671875</v>
       </c>
       <c r="D81" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E81" s="1">
-        <v>7.5207678973399084e-10</v>
+        <v>5.3882494022161609e-09</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1">
-        <v>450767.84375</v>
+        <v>47817.0625</v>
       </c>
       <c r="D82" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E82" s="1">
-        <v>1.2105579649812626e-08</v>
+        <v>4.7852926066127566e-09</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1">
-        <v>918098.125</v>
+        <v>66415.2265625</v>
       </c>
       <c r="D83" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E83" s="1">
-        <v>2.565410639476795e-08</v>
+        <v>5.8690048376774939e-09</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" s="1">
-        <v>1617040.125</v>
+        <v>162932.21875</v>
       </c>
       <c r="D84" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E84" s="1">
-        <v>6.1043579080433119e-08</v>
+        <v>3.6786346413464344e-08</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" s="1">
-        <v>1438164</v>
+        <v>272734.34375</v>
       </c>
       <c r="D85" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E85" s="1">
-        <v>4.035799960888653e-08</v>
+        <v>6.4069986649428756e-08</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" s="1">
-        <v>1996609.5</v>
+        <v>115123.953125</v>
       </c>
       <c r="D86" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E86" s="1">
-        <v>4.1705813913495149e-08</v>
+        <v>3.6536917491503118e-08</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" s="1">
-        <v>2159362.25</v>
+        <v>55051.80078125</v>
       </c>
       <c r="D87" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E87" s="1">
-        <v>2.5971795380996809e-08</v>
+        <v>1.2987923625473741e-08</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
-        <v>2021411.5</v>
+        <v>52168.01953125</v>
       </c>
       <c r="D88" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E88" s="1">
-        <v>4.9715580985321139e-08</v>
+        <v>9.1612513131167361e-09</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" s="1">
-        <v>1787155.25</v>
+        <v>36354.8671875</v>
       </c>
       <c r="D89" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E89" s="1">
-        <v>4.823362687034205e-08</v>
+        <v>3.6760889887688109e-09</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" s="1">
-        <v>553164.1875</v>
+        <v>20066.462890625</v>
       </c>
       <c r="D90" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E90" s="1">
-        <v>2.6174758360753003e-08</v>
+        <v>4.149116605844938e-09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" s="1">
-        <v>456487.625</v>
+        <v>22508.556640625</v>
       </c>
       <c r="D91" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E91" s="1">
-        <v>2.2559596857263386e-08</v>
+        <v>5.1071933349078336e-09</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" s="1">
-        <v>267396.40625</v>
+        <v>31941.232421875</v>
       </c>
       <c r="D92" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E92" s="1">
-        <v>1.6125863311344801e-08</v>
+        <v>1.2706539820328544e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" s="1">
-        <v>142403.953125</v>
+        <v>32166.447265625</v>
       </c>
       <c r="D93" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E93" s="1">
-        <v>1.6041649786302514e-08</v>
+        <v>1.336449173550136e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" s="1">
-        <v>67865.5625</v>
+        <v>8813.248046875</v>
       </c>
       <c r="D94" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E94" s="1">
-        <v>5.4649751390911661e-09</v>
+        <v>4.4683834410363943e-09</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" s="1">
-        <v>34552.26171875</v>
+        <v>4432.89013671875</v>
       </c>
       <c r="D95" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E95" s="1">
-        <v>3.917430380084852e-09</v>
+        <v>4.1981791376599631e-09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" s="1">
-        <v>115662.046875</v>
+        <v>3542.29150390625</v>
       </c>
       <c r="D96" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E96" s="1">
-        <v>1.2727864984185544e-08</v>
+        <v>2.3981152619256818e-09</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" s="1">
-        <v>9684.4287109375</v>
+        <v>509.02639770507813</v>
       </c>
       <c r="D97" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E97" s="1">
-        <v>2.335557747201733e-09</v>
+        <v>4.8519033235550069e-10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" s="1">
-        <v>19772.45703125</v>
+        <v>0</v>
       </c>
       <c r="D98" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E98" s="1">
-        <v>4.724049595949964e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" s="1">
         <v>0</v>
       </c>
       <c r="D99" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -1787,16 +1787,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" s="1">
         <v>0</v>
       </c>
       <c r="D100" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
@@ -1804,33 +1804,33 @@
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" s="1">
-        <v>6824.20654296875</v>
+        <v>0</v>
       </c>
       <c r="D101" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E101" s="1">
-        <v>1.0238446535026924e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
       </c>
       <c r="D102" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -1838,441 +1838,441 @@
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
-        <v>13457.2890625</v>
+        <v>0</v>
       </c>
       <c r="D103" s="2">
-        <v>4579196</v>
+        <v>544681</v>
       </c>
       <c r="E103" s="1">
-        <v>1.0286920115731846e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" s="1">
-        <v>9658.5849609375</v>
+        <v>0</v>
       </c>
       <c r="D104" s="2">
-        <v>3474730</v>
+        <v>544681</v>
       </c>
       <c r="E104" s="1">
-        <v>2.2385584497186528e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" s="1">
-        <v>48326.015625</v>
+        <v>0</v>
       </c>
       <c r="D105" s="2">
-        <v>3474730</v>
+        <v>544681</v>
       </c>
       <c r="E105" s="1">
-        <v>9.1251012301896139e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" s="1">
-        <v>67656.4296875</v>
+        <v>7433.5439453125</v>
       </c>
       <c r="D106" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E106" s="1">
-        <v>1.0613432355199848e-09</v>
+        <v>1.3073223614767926e-09</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" s="1">
-        <v>48326.015625</v>
+        <v>7155.044921875</v>
       </c>
       <c r="D107" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E107" s="1">
-        <v>6.6942040799489178e-10</v>
+        <v>1.0251818144402236e-10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" s="1">
-        <v>106317.2421875</v>
+        <v>14310.08984375</v>
       </c>
       <c r="D108" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E108" s="1">
-        <v>3.7627430060638289e-09</v>
+        <v>1.7034169907947927e-10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" s="1">
-        <v>473595</v>
+        <v>71550.453125</v>
       </c>
       <c r="D109" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E109" s="1">
-        <v>1.7439862887158597e-08</v>
+        <v>7.5207678973399084e-10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" s="1">
-        <v>658038.4375</v>
+        <v>450767.84375</v>
       </c>
       <c r="D110" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E110" s="1">
-        <v>3.2736981125935927e-08</v>
+        <v>1.2105579649812626e-08</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" s="1">
-        <v>1198485.25</v>
+        <v>918098.125</v>
       </c>
       <c r="D111" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E111" s="1">
-        <v>4.4322277403807675e-08</v>
+        <v>2.565410639476795e-08</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" s="1">
-        <v>1556097.75</v>
+        <v>1617040.125</v>
       </c>
       <c r="D112" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E112" s="1">
-        <v>4.2835960556431019e-08</v>
+        <v>6.1043579080433119e-08</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" s="1">
-        <v>1682867.25</v>
+        <v>1438164</v>
       </c>
       <c r="D113" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E113" s="1">
-        <v>2.6674388919900593e-08</v>
+        <v>4.035799960888653e-08</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" s="1">
-        <v>1391789.25</v>
+        <v>1996609.5</v>
       </c>
       <c r="D114" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E114" s="1">
-        <v>4.5110688517979725e-08</v>
+        <v>4.1705813913495149e-08</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" s="1">
-        <v>1131112.75</v>
+        <v>2159362.25</v>
       </c>
       <c r="D115" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E115" s="1">
-        <v>4.0231082465425061e-08</v>
+        <v>2.5971795380996809e-08</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" s="1">
-        <v>429373.28125</v>
+        <v>2021411.5</v>
       </c>
       <c r="D116" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E116" s="1">
-        <v>2.6775143879831376e-08</v>
+        <v>4.9715580985321139e-08</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C117" s="1">
-        <v>168426.171875</v>
+        <v>1787155.25</v>
       </c>
       <c r="D117" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E117" s="1">
-        <v>1.0969329444776577e-08</v>
+        <v>4.823362687034205e-08</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" s="1">
-        <v>139996.90625</v>
+        <v>553164.1875</v>
       </c>
       <c r="D118" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E118" s="1">
-        <v>1.1126383370196891e-08</v>
+        <v>2.6174758360753003e-08</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" s="1">
-        <v>86885.578125</v>
+        <v>456487.625</v>
       </c>
       <c r="D119" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E119" s="1">
-        <v>1.2898607515410276e-08</v>
+        <v>2.2559596857263386e-08</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" s="1">
-        <v>109073.203125</v>
+        <v>267396.40625</v>
       </c>
       <c r="D120" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E120" s="1">
-        <v>1.1575106206862529e-08</v>
+        <v>1.6125863311344801e-08</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" s="1">
-        <v>87982.21875</v>
+        <v>142403.953125</v>
       </c>
       <c r="D121" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E121" s="1">
-        <v>1.3145825761284868e-08</v>
+        <v>1.6041649786302514e-08</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" s="1">
-        <v>43076.60546875</v>
+        <v>67865.5625</v>
       </c>
       <c r="D122" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E122" s="1">
-        <v>6.2470406625436681e-09</v>
+        <v>5.4649751390911661e-09</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" s="1">
-        <v>70611.03125</v>
+        <v>34552.26171875</v>
       </c>
       <c r="D123" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E123" s="1">
-        <v>2.2441779989890165e-08</v>
+        <v>3.917430380084852e-09</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" s="1">
-        <v>35623.24609375</v>
+        <v>115662.046875</v>
       </c>
       <c r="D124" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E124" s="1">
-        <v>1.1216451767381841e-08</v>
+        <v>1.2727864984185544e-08</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" s="1">
-        <v>8341.71875</v>
+        <v>9684.4287109375</v>
       </c>
       <c r="D125" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E125" s="1">
-        <v>5.7193676461508858e-09</v>
+        <v>2.335557747201733e-09</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" s="1">
-        <v>1754.3394775390625</v>
+        <v>19772.45703125</v>
       </c>
       <c r="D126" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E126" s="1">
-        <v>1.1879841554929271e-09</v>
+        <v>4.724049595949964e-09</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" s="1">
-        <v>9559.5439453125</v>
+        <v>0</v>
       </c>
       <c r="D127" s="2">
-        <v>3474730</v>
+        <v>4579196</v>
       </c>
       <c r="E127" s="1">
-        <v>1.8901108234103958e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
+        <v>28</v>
+      </c>
+      <c r="B128" t="s">
         <v>6</v>
       </c>
-      <c r="B128" t="s">
-        <v>8</v>
-      </c>
       <c r="C128" s="1">
         <v>0</v>
       </c>
       <c r="D128" s="2">
-        <v>472523</v>
+        <v>4579196</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -2280,716 +2280,1379 @@
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" s="1">
-        <v>0</v>
+        <v>6824.20654296875</v>
       </c>
       <c r="D129" s="2">
-        <v>472523</v>
+        <v>4579196</v>
       </c>
       <c r="E129" s="1">
-        <v>0</v>
+        <v>1.0238446535026924e-08</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" s="1">
-        <v>2711.146240234375</v>
+        <v>0</v>
       </c>
       <c r="D130" s="2">
-        <v>472523</v>
+        <v>4579196</v>
       </c>
       <c r="E130" s="1">
-        <v>3.1275035339284329e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" s="1">
-        <v>2711.146240234375</v>
+        <v>13457.2890625</v>
       </c>
       <c r="D131" s="2">
-        <v>472523</v>
+        <v>4579196</v>
       </c>
       <c r="E131" s="1">
-        <v>2.7616525732909736e-10</v>
+        <v>1.0286920115731846e-07</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" s="1">
-        <v>10844.5849609375</v>
+        <v>9658.5849609375</v>
       </c>
       <c r="D132" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E132" s="1">
-        <v>2.8223565706753106e-09</v>
+        <v>2.2385584497186528e-09</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" s="1">
-        <v>32533.7578125</v>
+        <v>48326.015625</v>
       </c>
       <c r="D133" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E133" s="1">
-        <v>8.809845297719221e-09</v>
+        <v>9.1251012301896139e-10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" s="1">
-        <v>95865.8125</v>
+        <v>67656.4296875</v>
       </c>
       <c r="D134" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E134" s="1">
-        <v>3.5071089143912104e-08</v>
+        <v>1.0613432355199848e-09</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" s="1">
-        <v>159975.875</v>
+        <v>48326.015625</v>
       </c>
       <c r="D135" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E135" s="1">
-        <v>4.3505281155375997e-08</v>
+        <v>6.6942040799489178e-10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" s="1">
-        <v>157259.109375</v>
+        <v>106317.2421875</v>
       </c>
       <c r="D136" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E136" s="1">
-        <v>3.1833586433549499e-08</v>
+        <v>3.7627430060638289e-09</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" s="1">
-        <v>241295.046875</v>
+        <v>473595</v>
       </c>
       <c r="D137" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E137" s="1">
-        <v>2.8124910400606495e-08</v>
+        <v>1.7439862887158597e-08</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" s="1">
-        <v>222323.859375</v>
+        <v>658038.4375</v>
       </c>
       <c r="D138" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E138" s="1">
-        <v>5.2989538090741917e-08</v>
+        <v>3.2736981125935927e-08</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" s="1">
-        <v>221336.734375</v>
+        <v>1198485.25</v>
       </c>
       <c r="D139" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E139" s="1">
-        <v>5.7890517268788244e-08</v>
+        <v>4.4322277403807675e-08</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140" s="1">
-        <v>90785.859375</v>
+        <v>1556097.75</v>
       </c>
       <c r="D140" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E140" s="1">
-        <v>4.1630642044765409e-08</v>
+        <v>4.2835960556431019e-08</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C141" s="1">
-        <v>39298.9140625</v>
+        <v>1682867.25</v>
       </c>
       <c r="D141" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E141" s="1">
-        <v>1.882128053409815e-08</v>
+        <v>2.6674388919900593e-08</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" s="1">
-        <v>68759.625</v>
+        <v>1391789.25</v>
       </c>
       <c r="D142" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E142" s="1">
-        <v>4.0185298644246359e-08</v>
+        <v>4.5110688517979725e-08</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" s="1">
-        <v>97548.4453125</v>
+        <v>1131112.75</v>
       </c>
       <c r="D143" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E143" s="1">
-        <v>1.064911714365735e-07</v>
+        <v>4.0231082465425061e-08</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" s="1">
-        <v>12723.689453125</v>
+        <v>429373.28125</v>
       </c>
       <c r="D144" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E144" s="1">
-        <v>9.9292876143408648e-09</v>
+        <v>2.6775143879831376e-08</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" s="1">
-        <v>9738.57421875</v>
+        <v>168426.171875</v>
       </c>
       <c r="D145" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E145" s="1">
-        <v>1.0700066610525027e-08</v>
+        <v>1.0969329444776577e-08</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" s="1">
-        <v>34101.8671875</v>
+        <v>139996.90625</v>
       </c>
       <c r="D146" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E146" s="1">
-        <v>3.6367136857506921e-08</v>
+        <v>1.1126383370196891e-08</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" s="1">
-        <v>2554.861083984375</v>
+        <v>86885.578125</v>
       </c>
       <c r="D147" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E147" s="1">
-        <v>5.9710423272463231e-09</v>
+        <v>1.2898607515410276e-08</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" s="1">
-        <v>5612.482421875</v>
+        <v>109073.203125</v>
       </c>
       <c r="D148" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E148" s="1">
-        <v>1.2994964215806704e-08</v>
+        <v>1.1575106206862529e-08</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" s="1">
-        <v>24918.2109375</v>
+        <v>87982.21875</v>
       </c>
       <c r="D149" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E149" s="1">
-        <v>1.2563407381094294e-07</v>
+        <v>1.3145825761284868e-08</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" s="1">
-        <v>5.0881061553955078</v>
+        <v>43076.60546875</v>
       </c>
       <c r="D150" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E150" s="1">
-        <v>2.5336772610518032e-11</v>
+        <v>6.2470406625436681e-09</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" s="1">
-        <v>0</v>
+        <v>70611.03125</v>
       </c>
       <c r="D151" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E151" s="1">
-        <v>0</v>
+        <v>2.2441779989890165e-08</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" s="1">
-        <v>38.702857971191406</v>
+        <v>35623.24609375</v>
       </c>
       <c r="D152" s="2">
-        <v>472523</v>
+        <v>3474730</v>
       </c>
       <c r="E152" s="1">
-        <v>1.4335309606039459e-09</v>
+        <v>1.1216451767381841e-08</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C153" s="1">
-        <v>60019.5</v>
+        <v>8341.71875</v>
       </c>
       <c r="D153" s="2">
-        <v>785624</v>
+        <v>3474730</v>
       </c>
       <c r="E153" s="1">
-        <v>6.1525284422714321e-08</v>
+        <v>5.7193676461508858e-09</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1">
+        <v>28</v>
+      </c>
+      <c r="B154" t="s">
         <v>7</v>
       </c>
-      <c r="B154" t="s">
-        <v>9</v>
-      </c>
       <c r="C154" s="1">
-        <v>64591.11328125</v>
+        <v>1754.3394775390625</v>
       </c>
       <c r="D154" s="2">
-        <v>785624</v>
+        <v>3474730</v>
       </c>
       <c r="E154" s="1">
-        <v>5.3943085553953551e-09</v>
+        <v>1.1879841554929271e-09</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C155" s="1">
-        <v>69046.7890625</v>
+        <v>9559.5439453125</v>
       </c>
       <c r="D155" s="2">
-        <v>785624</v>
+        <v>3474730</v>
       </c>
       <c r="E155" s="1">
-        <v>4.7906736355685098e-09</v>
+        <v>1.8901108234103958e-08</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C156" s="1">
-        <v>95902.125</v>
+        <v>0</v>
       </c>
       <c r="D156" s="2">
-        <v>785624</v>
+        <v>3474730</v>
       </c>
       <c r="E156" s="1">
-        <v>5.8756040033358659e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C157" s="1">
-        <v>235270.5625</v>
+        <v>0</v>
       </c>
       <c r="D157" s="2">
-        <v>785624</v>
+        <v>3474730</v>
       </c>
       <c r="E157" s="1">
-        <v>3.6827714211540297e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C158" s="1">
-        <v>393822.40625</v>
+        <v>0</v>
       </c>
       <c r="D158" s="2">
-        <v>785624</v>
+        <v>472523</v>
       </c>
       <c r="E158" s="1">
-        <v>6.4142028577407473e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C159" s="1">
-        <v>166236.46875</v>
+        <v>0</v>
       </c>
       <c r="D159" s="2">
-        <v>785624</v>
+        <v>472523</v>
       </c>
       <c r="E159" s="1">
-        <v>3.6578004625198446e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C160" s="1">
-        <v>79493.59375</v>
+        <v>2711.146240234375</v>
       </c>
       <c r="D160" s="2">
-        <v>785624</v>
+        <v>472523</v>
       </c>
       <c r="E160" s="1">
-        <v>1.300252883140729e-08</v>
+        <v>3.1275035339284329e-10</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C161" s="1">
-        <v>75329.4765625</v>
+        <v>2711.146240234375</v>
       </c>
       <c r="D161" s="2">
-        <v>785624</v>
+        <v>472523</v>
       </c>
       <c r="E161" s="1">
-        <v>9.1715532946068379e-09</v>
+        <v>2.7616525732909736e-10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C162" s="1">
-        <v>52495.62890625</v>
+        <v>10844.5849609375</v>
       </c>
       <c r="D162" s="2">
-        <v>785624</v>
+        <v>472523</v>
       </c>
       <c r="E162" s="1">
-        <v>3.6802225711340952e-09</v>
+        <v>2.8223565706753106e-09</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C163" s="1">
-        <v>28975.53125</v>
+        <v>32533.7578125</v>
       </c>
       <c r="D163" s="2">
-        <v>785624</v>
+        <v>472523</v>
       </c>
       <c r="E163" s="1">
-        <v>4.1537817629944129e-09</v>
+        <v>8.809845297719221e-09</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C164" s="1">
-        <v>30609.943359375</v>
+        <v>95865.8125</v>
       </c>
       <c r="D164" s="2">
-        <v>785624</v>
+        <v>472523</v>
       </c>
       <c r="E164" s="1">
-        <v>4.8153143694662504e-09</v>
+        <v>3.5071089143912104e-08</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C165" s="1">
-        <v>64887.1796875</v>
+        <v>159975.875</v>
       </c>
       <c r="D165" s="2">
-        <v>785624</v>
+        <v>472523</v>
       </c>
       <c r="E165" s="1">
-        <v>1.7896249815407828e-08</v>
+        <v>4.3505281155375997e-08</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C166" s="1">
-        <v>65344.69140625</v>
+        <v>157259.109375</v>
       </c>
       <c r="D166" s="2">
-        <v>785624</v>
+        <v>472523</v>
       </c>
       <c r="E166" s="1">
-        <v>1.8822927216888274e-08</v>
+        <v>3.1833586433549499e-08</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C167" s="1">
-        <v>17903.716796875</v>
+        <v>241295.046875</v>
       </c>
       <c r="D167" s="2">
-        <v>785624</v>
+        <v>472523</v>
       </c>
       <c r="E167" s="1">
-        <v>6.293396470624657e-09</v>
+        <v>2.8124910400606495e-08</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C168" s="1">
-        <v>9005.2177734375</v>
+        <v>222323.859375</v>
       </c>
       <c r="D168" s="2">
-        <v>785624</v>
+        <v>472523</v>
       </c>
       <c r="E168" s="1">
-        <v>5.912833778154436e-09</v>
+        <v>5.2989538090741917e-08</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C169" s="1">
-        <v>7196.00634765625</v>
+        <v>221336.734375</v>
       </c>
       <c r="D169" s="2">
-        <v>785624</v>
+        <v>472523</v>
       </c>
       <c r="E169" s="1">
-        <v>3.3775733321306234e-09</v>
+        <v>5.7890517268788244e-08</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1">
+        <v>18</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="1">
+        <v>90785.859375</v>
+      </c>
+      <c r="D170" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E170" s="1">
+        <v>4.1630642044765409e-08</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1">
+        <v>19</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="1">
+        <v>39298.9140625</v>
+      </c>
+      <c r="D171" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1.882128053409815e-08</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1">
+        <v>20</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="1">
+        <v>68759.625</v>
+      </c>
+      <c r="D172" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E172" s="1">
+        <v>4.0185298644246359e-08</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1">
+        <v>21</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="1">
+        <v>97548.4453125</v>
+      </c>
+      <c r="D173" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1.064911714365735e-07</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1">
+        <v>22</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="1">
+        <v>12723.689453125</v>
+      </c>
+      <c r="D174" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E174" s="1">
+        <v>9.9292876143408648e-09</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1">
         <v>23</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="1">
+        <v>9738.57421875</v>
+      </c>
+      <c r="D175" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1.0700066610525027e-08</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1">
+        <v>24</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="1">
+        <v>34101.8671875</v>
+      </c>
+      <c r="D176" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E176" s="1">
+        <v>3.6367136857506921e-08</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1">
+        <v>25</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2554.861083984375</v>
+      </c>
+      <c r="D177" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E177" s="1">
+        <v>5.9710423272463231e-09</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1">
+        <v>26</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="1">
+        <v>5612.482421875</v>
+      </c>
+      <c r="D178" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1.2994964215806704e-08</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1">
+        <v>27</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="1">
+        <v>24918.2109375</v>
+      </c>
+      <c r="D179" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1.2563407381094294e-07</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1">
+        <v>28</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="1">
+        <v>5.0881061553955078</v>
+      </c>
+      <c r="D180" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E180" s="1">
+        <v>2.5336772610518032e-11</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1">
+        <v>29</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="1">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1">
+        <v>30</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="1">
+        <v>38.702857971191406</v>
+      </c>
+      <c r="D182" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1.4335309606039459e-09</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1">
+        <v>31</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>472523</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
         <v>9</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C184" s="1">
+        <v>60019.5</v>
+      </c>
+      <c r="D184" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E184" s="1">
+        <v>6.1525284422714321e-08</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="1">
+        <v>64591.11328125</v>
+      </c>
+      <c r="D185" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E185" s="1">
+        <v>5.3943085553953551e-09</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1">
+        <v>8</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="1">
+        <v>69046.7890625</v>
+      </c>
+      <c r="D186" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E186" s="1">
+        <v>4.7906736355685098e-09</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1">
+        <v>9</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="1">
+        <v>95902.125</v>
+      </c>
+      <c r="D187" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E187" s="1">
+        <v>5.8756040033358659e-09</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1">
+        <v>10</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="1">
+        <v>235270.5625</v>
+      </c>
+      <c r="D188" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E188" s="1">
+        <v>3.6827714211540297e-08</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1">
+        <v>11</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="1">
+        <v>393822.40625</v>
+      </c>
+      <c r="D189" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E189" s="1">
+        <v>6.4142028577407473e-08</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1">
+        <v>12</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" s="1">
+        <v>166236.46875</v>
+      </c>
+      <c r="D190" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E190" s="1">
+        <v>3.6578004625198446e-08</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="1">
+        <v>79493.59375</v>
+      </c>
+      <c r="D191" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E191" s="1">
+        <v>1.300252883140729e-08</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1">
+        <v>14</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="1">
+        <v>75329.4765625</v>
+      </c>
+      <c r="D192" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E192" s="1">
+        <v>9.1715532946068379e-09</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1">
+        <v>15</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="1">
+        <v>52495.62890625</v>
+      </c>
+      <c r="D193" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E193" s="1">
+        <v>3.6802225711340952e-09</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>16</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="1">
+        <v>28975.53125</v>
+      </c>
+      <c r="D194" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E194" s="1">
+        <v>4.1537817629944129e-09</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1">
+        <v>17</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" s="1">
+        <v>30609.943359375</v>
+      </c>
+      <c r="D195" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E195" s="1">
+        <v>4.8153143694662504e-09</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1">
+        <v>18</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="1">
+        <v>64887.1796875</v>
+      </c>
+      <c r="D196" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1.7896249815407828e-08</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1">
+        <v>19</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="1">
+        <v>65344.69140625</v>
+      </c>
+      <c r="D197" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1.8822927216888274e-08</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1">
+        <v>20</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" s="1">
+        <v>17903.716796875</v>
+      </c>
+      <c r="D198" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E198" s="1">
+        <v>6.293396470624657e-09</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1">
+        <v>21</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" s="1">
+        <v>9005.2177734375</v>
+      </c>
+      <c r="D199" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E199" s="1">
+        <v>5.912833778154436e-09</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1">
+        <v>22</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="1">
+        <v>7196.00634765625</v>
+      </c>
+      <c r="D200" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E200" s="1">
+        <v>3.3775733321306234e-09</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1">
+        <v>23</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" s="1">
         <v>1034.0643310546875</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D201" s="2">
         <v>785624</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E201" s="1">
         <v>6.8335576086653305e-10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1">
+        <v>24</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1">
+        <v>25</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="1">
+        <v>0</v>
+      </c>
+      <c r="D203" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1">
+        <v>26</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1">
+        <v>27</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1">
+        <v>28</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" s="1">
+        <v>0</v>
+      </c>
+      <c r="D206" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1">
+        <v>29</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" s="1">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1">
+        <v>30</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" s="1">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1">
+        <v>31</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="1">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2">
+        <v>785624</v>
+      </c>
+      <c r="E209" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/rec_selectivity_by_state_cdf_star_raw.xlsx
+++ b/rec_selectivity_by_state_cdf_star_raw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="15">
   <si>
     <t>l_in_bin</t>
   </si>
@@ -33,6 +33,9 @@
     <t>MD</t>
   </si>
   <si>
+    <t>NC</t>
+  </si>
+  <si>
     <t>NJ</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
   </si>
   <si>
     <t>VA</t>
+  </si>
+  <si>
+    <t>N_l_2019</t>
   </si>
   <si>
     <t>C_l</t>
@@ -99,7 +105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:F235"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -110,13 +116,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -127,13 +136,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+        <v>1264938.232421875</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>413071</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
+      <c r="F2" s="1">
+        <v>7.9055246260395506e-07</v>
       </c>
     </row>
     <row r="3">
@@ -144,13 +156,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+        <v>15898425.872802734</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>413071</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
+      <c r="F3" s="1">
+        <v>6.289931064884513e-08</v>
       </c>
     </row>
     <row r="4">
@@ -161,13 +176,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>8320.6416015625</v>
-      </c>
-      <c r="D4" s="2">
+        <v>19060770.99609375</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7382.95458984375</v>
+      </c>
+      <c r="E4" s="2">
         <v>413071</v>
       </c>
-      <c r="E4" s="1">
-        <v>1.0979939180089104e-09</v>
+      <c r="F4" s="1">
+        <v>0.00038733766996301711</v>
       </c>
     </row>
     <row r="5">
@@ -178,13 +196,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>13313.025390625</v>
-      </c>
-      <c r="D5" s="2">
+        <v>22156789.794921875</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9492.3701171875</v>
+      </c>
+      <c r="E5" s="2">
         <v>413071</v>
       </c>
-      <c r="E5" s="1">
-        <v>1.5512832129971343e-09</v>
+      <c r="F5" s="1">
+        <v>0.00042841810500249267</v>
       </c>
     </row>
     <row r="6">
@@ -195,13 +216,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>13313.025390625</v>
-      </c>
-      <c r="D6" s="2">
+        <v>9027962.40234375</v>
+      </c>
+      <c r="D6" s="1">
+        <v>21094.158203125</v>
+      </c>
+      <c r="E6" s="2">
         <v>413071</v>
       </c>
-      <c r="E6" s="1">
-        <v>3.9634553417045026e-09</v>
+      <c r="F6" s="1">
+        <v>0.0023365358356386423</v>
       </c>
     </row>
     <row r="7">
@@ -212,13 +236,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>21633.666015625</v>
-      </c>
-      <c r="D7" s="2">
+        <v>9068628.90625</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15820.6162109375</v>
+      </c>
+      <c r="E7" s="2">
         <v>413071</v>
       </c>
-      <c r="E7" s="1">
-        <v>6.7013519178260594e-09</v>
+      <c r="F7" s="1">
+        <v>0.0017445433186367154</v>
       </c>
     </row>
     <row r="8">
@@ -229,13 +256,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>54916.234375</v>
-      </c>
-      <c r="D8" s="2">
+        <v>6862453.61328125</v>
+      </c>
+      <c r="D8" s="1">
+        <v>52735.390625</v>
+      </c>
+      <c r="E8" s="2">
         <v>413071</v>
       </c>
-      <c r="E8" s="1">
-        <v>2.298182444349095e-08</v>
+      <c r="F8" s="1">
+        <v>0.0076846261508762836</v>
       </c>
     </row>
     <row r="9">
@@ -246,13 +276,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>158092.1875</v>
-      </c>
-      <c r="D9" s="2">
+        <v>9198800.5218505859</v>
+      </c>
+      <c r="D9" s="1">
+        <v>132927.171875</v>
+      </c>
+      <c r="E9" s="2">
         <v>413071</v>
       </c>
-      <c r="E9" s="1">
-        <v>4.9180862049524876e-08</v>
+      <c r="F9" s="1">
+        <v>0.014450489543378353</v>
       </c>
     </row>
     <row r="10">
@@ -263,13 +296,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>131240.390625</v>
-      </c>
-      <c r="D10" s="2">
+        <v>12330866.884231567</v>
+      </c>
+      <c r="D10" s="1">
+        <v>137798.328125</v>
+      </c>
+      <c r="E10" s="2">
         <v>413071</v>
       </c>
-      <c r="E10" s="1">
-        <v>3.0390335581387262e-08</v>
+      <c r="F10" s="1">
+        <v>0.011175071820616722</v>
       </c>
     </row>
     <row r="11">
@@ -280,13 +316,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>148576.40625</v>
-      </c>
-      <c r="D11" s="2">
+        <v>21252714.208602905</v>
+      </c>
+      <c r="D11" s="1">
+        <v>136921.75</v>
+      </c>
+      <c r="E11" s="2">
         <v>413071</v>
       </c>
-      <c r="E11" s="1">
-        <v>1.9810290297073152e-08</v>
+      <c r="F11" s="1">
+        <v>0.0064425533637404442</v>
       </c>
     </row>
     <row r="12">
@@ -297,13 +336,16 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>163622.015625</v>
-      </c>
-      <c r="D12" s="2">
+        <v>10294373.378753662</v>
+      </c>
+      <c r="D12" s="1">
+        <v>190174.25</v>
+      </c>
+      <c r="E12" s="2">
         <v>413071</v>
       </c>
-      <c r="E12" s="1">
-        <v>4.4611216054590841e-08</v>
+      <c r="F12" s="1">
+        <v>0.018473610281944275</v>
       </c>
     </row>
     <row r="13">
@@ -314,13 +356,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>170444</v>
-      </c>
-      <c r="D13" s="2">
+        <v>9254571.3768005371</v>
+      </c>
+      <c r="D13" s="1">
+        <v>197436.4375</v>
+      </c>
+      <c r="E13" s="2">
         <v>413071</v>
       </c>
-      <c r="E13" s="1">
-        <v>5.0995737410630682e-08</v>
+      <c r="F13" s="1">
+        <v>0.021333936601877213</v>
       </c>
     </row>
     <row r="14">
@@ -331,13 +376,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>105868.84375</v>
-      </c>
-      <c r="D14" s="2">
+        <v>5221157.0129394531</v>
+      </c>
+      <c r="D14" s="1">
+        <v>161044.625</v>
+      </c>
+      <c r="E14" s="2">
         <v>413071</v>
       </c>
-      <c r="E14" s="1">
-        <v>5.553430426630257e-08</v>
+      <c r="F14" s="1">
+        <v>0.030844623222947121</v>
       </c>
     </row>
     <row r="15">
@@ -348,13 +396,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>73487.625</v>
-      </c>
-      <c r="D15" s="2">
+        <v>4942172.721862793</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41829.15625</v>
+      </c>
+      <c r="E15" s="2">
         <v>413071</v>
       </c>
-      <c r="E15" s="1">
-        <v>4.0260676570369469e-08</v>
+      <c r="F15" s="1">
+        <v>0.0084637179970741272</v>
       </c>
     </row>
     <row r="16">
@@ -365,13 +416,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>27099.3671875</v>
-      </c>
-      <c r="D16" s="2">
+        <v>3990679.4891357422</v>
+      </c>
+      <c r="D16" s="1">
+        <v>17886.884765625</v>
+      </c>
+      <c r="E16" s="2">
         <v>413071</v>
       </c>
-      <c r="E16" s="1">
-        <v>1.8117200184519788e-08</v>
+      <c r="F16" s="1">
+        <v>0.0044821649789810181</v>
       </c>
     </row>
     <row r="17">
@@ -382,13 +436,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>25336.60546875</v>
-      </c>
-      <c r="D17" s="2">
+        <v>2106215.8489227295</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14599.7353515625</v>
+      </c>
+      <c r="E17" s="2">
         <v>413071</v>
       </c>
-      <c r="E17" s="1">
-        <v>3.1640251307862854e-08</v>
+      <c r="F17" s="1">
+        <v>0.0069317375309765339</v>
       </c>
     </row>
     <row r="18">
@@ -399,13 +456,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>22962.57421875</v>
-      </c>
-      <c r="D18" s="2">
+        <v>2926799.0379333496</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8551.65234375</v>
+      </c>
+      <c r="E18" s="2">
         <v>413071</v>
       </c>
-      <c r="E18" s="1">
-        <v>2.0498584163419764e-08</v>
+      <c r="F18" s="1">
+        <v>0.0029218448325991631</v>
       </c>
     </row>
     <row r="19">
@@ -416,13 +476,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>11376.578125</v>
-      </c>
-      <c r="D19" s="2">
+        <v>2066948.8639831543</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4908.30029296875</v>
+      </c>
+      <c r="E19" s="2">
         <v>413071</v>
       </c>
-      <c r="E19" s="1">
-        <v>1.4298845663063275e-08</v>
+      <c r="F19" s="1">
+        <v>0.0023746597580611706</v>
       </c>
     </row>
     <row r="20">
@@ -433,13 +496,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>4214.31103515625</v>
-      </c>
-      <c r="D20" s="2">
+        <v>2121538.7115478516</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3174.176025390625</v>
+      </c>
+      <c r="E20" s="2">
         <v>413071</v>
       </c>
-      <c r="E20" s="1">
-        <v>5.1410968815446267e-09</v>
+      <c r="F20" s="1">
+        <v>0.0014961669221520424</v>
       </c>
     </row>
     <row r="21">
@@ -450,13 +516,16 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>516.19854736328125</v>
-      </c>
-      <c r="D21" s="2">
+        <v>973526.56936645508</v>
+      </c>
+      <c r="D21" s="1">
+        <v>542.42962646484375</v>
+      </c>
+      <c r="E21" s="2">
         <v>413071</v>
       </c>
-      <c r="E21" s="1">
-        <v>1.3800597331581343e-09</v>
+      <c r="F21" s="1">
+        <v>0.00055718008661642671</v>
       </c>
     </row>
     <row r="22">
@@ -467,13 +536,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>744.09295654296875</v>
-      </c>
-      <c r="D22" s="2">
+        <v>972189.28337097168</v>
+      </c>
+      <c r="D22" s="1">
+        <v>129.90037536621094</v>
+      </c>
+      <c r="E22" s="2">
         <v>413071</v>
       </c>
-      <c r="E22" s="1">
-        <v>1.9708135123863713e-09</v>
+      <c r="F22" s="1">
+        <v>0.00013361634046304971</v>
       </c>
     </row>
     <row r="23">
@@ -484,13 +556,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
+        <v>446174.12567138672</v>
+      </c>
+      <c r="D23" s="1">
+        <v>293.73092651367188</v>
+      </c>
+      <c r="E23" s="2">
         <v>413071</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
+      <c r="F23" s="1">
+        <v>0.00065833248663693666</v>
       </c>
     </row>
     <row r="24">
@@ -501,13 +576,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>170.1033935546875</v>
-      </c>
-      <c r="D24" s="2">
+        <v>452284.0518951416</v>
+      </c>
+      <c r="D24" s="1">
+        <v>469.26144409179688</v>
+      </c>
+      <c r="E24" s="2">
         <v>413071</v>
       </c>
-      <c r="E24" s="1">
-        <v>9.6896113355171565e-10</v>
+      <c r="F24" s="1">
+        <v>0.0010375370038673282</v>
       </c>
     </row>
     <row r="25">
@@ -518,13 +596,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
+        <v>154776.07345581055</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
         <v>413071</v>
       </c>
-      <c r="E25" s="1">
-        <v>0</v>
+      <c r="F25" s="1">
+        <v>6.460947133746231e-06</v>
       </c>
     </row>
     <row r="26">
@@ -535,13 +616,16 @@
         <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
+        <v>60746.269226074219</v>
+      </c>
+      <c r="D26" s="1">
+        <v>34.604843139648438</v>
+      </c>
+      <c r="E26" s="2">
         <v>413071</v>
       </c>
-      <c r="E26" s="1">
-        <v>0</v>
+      <c r="F26" s="1">
+        <v>0.00056966202100738883</v>
       </c>
     </row>
     <row r="27">
@@ -552,13 +636,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
+        <v>40497.51091003418</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
         <v>413071</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
+      <c r="F27" s="1">
+        <v>2.4692875740583986e-05</v>
       </c>
     </row>
     <row r="28">
@@ -569,13 +656,16 @@
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
+        <v>1264938.232421875</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
         <v>401288</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
+      <c r="F28" s="1">
+        <v>7.9055246260395506e-07</v>
       </c>
     </row>
     <row r="29">
@@ -586,13 +676,16 @@
         <v>3</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
+        <v>15898425.872802734</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3940.27587890625</v>
+      </c>
+      <c r="E29" s="2">
         <v>401288</v>
       </c>
-      <c r="E29" s="1">
-        <v>0</v>
+      <c r="F29" s="1">
+        <v>0.00024784062406979501</v>
       </c>
     </row>
     <row r="30">
@@ -603,13 +696,16 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>5154.81591796875</v>
-      </c>
-      <c r="D30" s="2">
+        <v>19060770.99609375</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3979.85302734375</v>
+      </c>
+      <c r="E30" s="2">
         <v>401288</v>
       </c>
-      <c r="E30" s="1">
-        <v>7.0020439446594196e-10</v>
+      <c r="F30" s="1">
+        <v>0.00020879811199847609</v>
       </c>
     </row>
     <row r="31">
@@ -620,13 +716,16 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
+        <v>22156789.794921875</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5969.779296875</v>
+      </c>
+      <c r="E31" s="2">
         <v>401288</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
+      <c r="F31" s="1">
+        <v>0.0002694333961699158</v>
       </c>
     </row>
     <row r="32">
@@ -637,13 +736,16 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>10309.6318359375</v>
-      </c>
-      <c r="D32" s="2">
+        <v>9027962.40234375</v>
+      </c>
+      <c r="D32" s="1">
+        <v>11939.8681640625</v>
+      </c>
+      <c r="E32" s="2">
         <v>401288</v>
       </c>
-      <c r="E32" s="1">
-        <v>3.1594309390925446e-09</v>
+      <c r="F32" s="1">
+        <v>0.0013225430157035589</v>
       </c>
     </row>
     <row r="33">
@@ -654,13 +756,16 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>20619.263671875</v>
-      </c>
-      <c r="D33" s="2">
+        <v>9068628.90625</v>
+      </c>
+      <c r="D33" s="1">
+        <v>23879.921875</v>
+      </c>
+      <c r="E33" s="2">
         <v>401288</v>
       </c>
-      <c r="E33" s="1">
-        <v>6.5746705857350207e-09</v>
+      <c r="F33" s="1">
+        <v>0.002633244963362813</v>
       </c>
     </row>
     <row r="34">
@@ -671,13 +776,16 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>56702.98046875</v>
-      </c>
-      <c r="D34" s="2">
+        <v>6862453.61328125</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45768.3125</v>
+      </c>
+      <c r="E34" s="2">
         <v>401288</v>
       </c>
-      <c r="E34" s="1">
-        <v>2.4426325850868125e-08</v>
+      <c r="F34" s="1">
+        <v>0.0066693802364170551</v>
       </c>
     </row>
     <row r="35">
@@ -688,13 +796,16 @@
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>92788.6328125</v>
-      </c>
-      <c r="D35" s="2">
+        <v>9198800.5218505859</v>
+      </c>
+      <c r="D35" s="1">
+        <v>77610.2578125</v>
+      </c>
+      <c r="E35" s="2">
         <v>401288</v>
       </c>
-      <c r="E35" s="1">
-        <v>2.9713174143353172e-08</v>
+      <c r="F35" s="1">
+        <v>0.0084369974210858345</v>
       </c>
     </row>
     <row r="36">
@@ -705,13 +816,16 @@
         <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>114051.140625</v>
-      </c>
-      <c r="D36" s="2">
+        <v>12330866.884231567</v>
+      </c>
+      <c r="D36" s="1">
+        <v>117786.9765625</v>
+      </c>
+      <c r="E36" s="2">
         <v>401288</v>
       </c>
-      <c r="E36" s="1">
-        <v>2.7185425466313973e-08</v>
+      <c r="F36" s="1">
+        <v>0.0095522059127688408</v>
       </c>
     </row>
     <row r="37">
@@ -722,13 +836,16 @@
         <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>98321.1171875</v>
-      </c>
-      <c r="D37" s="2">
+        <v>21252714.208602905</v>
+      </c>
+      <c r="D37" s="1">
+        <v>118327.9453125</v>
+      </c>
+      <c r="E37" s="2">
         <v>401288</v>
       </c>
-      <c r="E37" s="1">
-        <v>1.3494485529008671e-08</v>
+      <c r="F37" s="1">
+        <v>0.0055676628835499287</v>
       </c>
     </row>
     <row r="38">
@@ -739,13 +856,16 @@
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>40778.49609375</v>
-      </c>
-      <c r="D38" s="2">
+        <v>10294373.378753662</v>
+      </c>
+      <c r="D38" s="1">
+        <v>56474.09765625</v>
+      </c>
+      <c r="E38" s="2">
         <v>401288</v>
       </c>
-      <c r="E38" s="1">
-        <v>1.1444638126079099e-08</v>
+      <c r="F38" s="1">
+        <v>0.0054859188385307789</v>
       </c>
     </row>
     <row r="39">
@@ -756,13 +876,16 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>26951.21875</v>
-      </c>
-      <c r="D39" s="2">
+        <v>9254571.3768005371</v>
+      </c>
+      <c r="D39" s="1">
+        <v>26512.328125</v>
+      </c>
+      <c r="E39" s="2">
         <v>401288</v>
       </c>
-      <c r="E39" s="1">
-        <v>8.3004021433907837e-09</v>
+      <c r="F39" s="1">
+        <v>0.0028647817671298981</v>
       </c>
     </row>
     <row r="40">
@@ -773,13 +896,16 @@
         <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>30696.376953125</v>
-      </c>
-      <c r="D40" s="2">
+        <v>5221157.0129394531</v>
+      </c>
+      <c r="D40" s="1">
+        <v>19543.951171875</v>
+      </c>
+      <c r="E40" s="2">
         <v>401288</v>
       </c>
-      <c r="E40" s="1">
-        <v>1.6574819738934821e-08</v>
+      <c r="F40" s="1">
+        <v>0.0037432222161442041</v>
       </c>
     </row>
     <row r="41">
@@ -790,13 +916,16 @@
         <v>3</v>
       </c>
       <c r="C41" s="1">
-        <v>20604.884765625</v>
-      </c>
-      <c r="D41" s="2">
+        <v>4942172.721862793</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10862.0146484375</v>
+      </c>
+      <c r="E41" s="2">
         <v>401288</v>
       </c>
-      <c r="E41" s="1">
-        <v>1.1619985862409976e-08</v>
+      <c r="F41" s="1">
+        <v>0.0021978216245770454</v>
       </c>
     </row>
     <row r="42">
@@ -807,13 +936,16 @@
         <v>3</v>
       </c>
       <c r="C42" s="1">
-        <v>7973.3330078125</v>
-      </c>
-      <c r="D42" s="2">
+        <v>3990679.4891357422</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3729.3203125</v>
+      </c>
+      <c r="E42" s="2">
         <v>401288</v>
       </c>
-      <c r="E42" s="1">
-        <v>5.4870685772812067e-09</v>
+      <c r="F42" s="1">
+        <v>0.00093450758140534163</v>
       </c>
     </row>
     <row r="43">
@@ -824,13 +956,16 @@
         <v>3</v>
       </c>
       <c r="C43" s="1">
-        <v>545.93988037109375</v>
-      </c>
-      <c r="D43" s="2">
+        <v>2106215.8489227295</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1345.5067138671875</v>
+      </c>
+      <c r="E43" s="2">
         <v>401288</v>
       </c>
-      <c r="E43" s="1">
-        <v>7.0178624023142788e-10</v>
+      <c r="F43" s="1">
+        <v>0.00063882657559588552</v>
       </c>
     </row>
     <row r="44">
@@ -841,13 +976,16 @@
         <v>3</v>
       </c>
       <c r="C44" s="1">
-        <v>6439.92626953125</v>
-      </c>
-      <c r="D44" s="2">
+        <v>2926799.0379333496</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3192.2021484375</v>
+      </c>
+      <c r="E44" s="2">
         <v>401288</v>
       </c>
-      <c r="E44" s="1">
-        <v>5.9176965550022942e-09</v>
+      <c r="F44" s="1">
+        <v>0.0010906803654506803</v>
       </c>
     </row>
     <row r="45">
@@ -858,13 +996,16 @@
         <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
+        <v>2066948.8639831543</v>
+      </c>
+      <c r="D45" s="1">
+        <v>25.691064834594727</v>
+      </c>
+      <c r="E45" s="2">
         <v>401288</v>
       </c>
-      <c r="E45" s="1">
-        <v>0</v>
+      <c r="F45" s="1">
+        <v>1.2429462913132738e-05</v>
       </c>
     </row>
     <row r="46">
@@ -875,13 +1016,16 @@
         <v>3</v>
       </c>
       <c r="C46" s="1">
-        <v>12.90007209777832</v>
-      </c>
-      <c r="D46" s="2">
+        <v>2121538.7115478516</v>
+      </c>
+      <c r="D46" s="1">
+        <v>254.52424621582031</v>
+      </c>
+      <c r="E46" s="2">
         <v>401288</v>
       </c>
-      <c r="E46" s="1">
-        <v>1.6199062924382446e-11</v>
+      <c r="F46" s="1">
+        <v>0.00011997153342235833</v>
       </c>
     </row>
     <row r="47">
@@ -892,13 +1036,16 @@
         <v>3</v>
       </c>
       <c r="C47" s="1">
-        <v>251.96794128417969</v>
-      </c>
-      <c r="D47" s="2">
+        <v>973526.56936645508</v>
+      </c>
+      <c r="D47" s="1">
+        <v>178.62748718261719</v>
+      </c>
+      <c r="E47" s="2">
         <v>401288</v>
       </c>
-      <c r="E47" s="1">
-        <v>6.9341771213871084e-10</v>
+      <c r="F47" s="1">
+        <v>0.00018348496814724058</v>
       </c>
     </row>
     <row r="48">
@@ -909,13 +1056,16 @@
         <v>3</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
+        <v>972189.28337097168</v>
+      </c>
+      <c r="D48" s="1">
+        <v>881.1624755859375</v>
+      </c>
+      <c r="E48" s="2">
         <v>401288</v>
       </c>
-      <c r="E48" s="1">
-        <v>0</v>
+      <c r="F48" s="1">
+        <v>0.00090636924142017961</v>
       </c>
     </row>
     <row r="49">
@@ -926,13 +1076,16 @@
         <v>3</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
+        <v>446174.12567138672</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
         <v>401288</v>
       </c>
-      <c r="E49" s="1">
-        <v>0</v>
+      <c r="F49" s="1">
+        <v>2.2412773432733957e-06</v>
       </c>
     </row>
     <row r="50">
@@ -943,13 +1096,16 @@
         <v>3</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
+        <v>452284.0518951416</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
         <v>401288</v>
       </c>
-      <c r="E50" s="1">
-        <v>0</v>
+      <c r="F50" s="1">
+        <v>2.210999809904024e-06</v>
       </c>
     </row>
     <row r="51">
@@ -960,13 +1116,16 @@
         <v>3</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
+        <v>154776.07345581055</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
         <v>401288</v>
       </c>
-      <c r="E51" s="1">
-        <v>0</v>
+      <c r="F51" s="1">
+        <v>6.460947133746231e-06</v>
       </c>
     </row>
     <row r="52">
@@ -977,13 +1136,16 @@
         <v>3</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
+        <v>60746.269226074219</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
         <v>401288</v>
       </c>
-      <c r="E52" s="1">
-        <v>0</v>
+      <c r="F52" s="1">
+        <v>1.6461915947729722e-05</v>
       </c>
     </row>
     <row r="53">
@@ -994,13 +1156,16 @@
         <v>3</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
+        <v>40497.51091003418</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
         <v>401288</v>
       </c>
-      <c r="E53" s="1">
-        <v>0</v>
+      <c r="F53" s="1">
+        <v>2.4692875740583986e-05</v>
       </c>
     </row>
     <row r="54">
@@ -1011,13 +1176,16 @@
         <v>4</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
+        <v>1264938.232421875</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
         <v>104251</v>
       </c>
-      <c r="E54" s="1">
-        <v>0</v>
+      <c r="F54" s="1">
+        <v>7.9055246260395506e-07</v>
       </c>
     </row>
     <row r="55">
@@ -1028,13 +1196,16 @@
         <v>4</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
+        <v>15898425.872802734</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
         <v>104251</v>
       </c>
-      <c r="E55" s="1">
-        <v>0</v>
+      <c r="F55" s="1">
+        <v>6.289931064884513e-08</v>
       </c>
     </row>
     <row r="56">
@@ -1045,13 +1216,16 @@
         <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
+        <v>19060770.99609375</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
         <v>104251</v>
       </c>
-      <c r="E56" s="1">
-        <v>0</v>
+      <c r="F56" s="1">
+        <v>5.2463775546129909e-08</v>
       </c>
     </row>
     <row r="57">
@@ -1062,13 +1236,16 @@
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
+        <v>22156789.794921875</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
         <v>104251</v>
       </c>
-      <c r="E57" s="1">
-        <v>0</v>
+      <c r="F57" s="1">
+        <v>4.5132892978472228e-08</v>
       </c>
     </row>
     <row r="58">
@@ -1079,13 +1256,16 @@
         <v>4</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
+        <v>9027962.40234375</v>
+      </c>
+      <c r="D58" s="1">
+        <v>9238.4013671875</v>
+      </c>
+      <c r="E58" s="2">
         <v>104251</v>
       </c>
-      <c r="E58" s="1">
-        <v>0</v>
+      <c r="F58" s="1">
+        <v>0.0010233096545562148</v>
       </c>
     </row>
     <row r="59">
@@ -1096,13 +1276,16 @@
         <v>4</v>
       </c>
       <c r="C59" s="1">
-        <v>16736.26953125</v>
-      </c>
-      <c r="D59" s="2">
+        <v>9068628.90625</v>
+      </c>
+      <c r="D59" s="1">
+        <v>9238.4013671875</v>
+      </c>
+      <c r="E59" s="2">
         <v>104251</v>
       </c>
-      <c r="E59" s="1">
-        <v>2.0541655487704702e-08</v>
+      <c r="F59" s="1">
+        <v>0.0010187207954004407</v>
       </c>
     </row>
     <row r="60">
@@ -1113,13 +1296,16 @@
         <v>4</v>
       </c>
       <c r="C60" s="1">
-        <v>16736.26953125</v>
-      </c>
-      <c r="D60" s="2">
+        <v>6862453.61328125</v>
+      </c>
+      <c r="D60" s="1">
+        <v>18476.802734375</v>
+      </c>
+      <c r="E60" s="2">
         <v>104251</v>
       </c>
-      <c r="E60" s="1">
-        <v>2.775152729839192e-08</v>
+      <c r="F60" s="1">
+        <v>0.002692448440939188</v>
       </c>
     </row>
     <row r="61">
@@ -1130,13 +1316,16 @@
         <v>4</v>
       </c>
       <c r="C61" s="1">
-        <v>17844.982421875</v>
-      </c>
-      <c r="D61" s="2">
+        <v>9198800.5218505859</v>
+      </c>
+      <c r="D61" s="1">
+        <v>37430.94921875</v>
+      </c>
+      <c r="E61" s="2">
         <v>104251</v>
       </c>
-      <c r="E61" s="1">
-        <v>2.1996132915091948e-08</v>
+      <c r="F61" s="1">
+        <v>0.0040691117756068707</v>
       </c>
     </row>
     <row r="62">
@@ -1147,13 +1336,16 @@
         <v>4</v>
       </c>
       <c r="C62" s="1">
-        <v>3712.0380859375</v>
-      </c>
-      <c r="D62" s="2">
+        <v>12330866.884231567</v>
+      </c>
+      <c r="D62" s="1">
+        <v>27100.591796875</v>
+      </c>
+      <c r="E62" s="2">
         <v>104251</v>
       </c>
-      <c r="E62" s="1">
-        <v>3.4058449394080981e-09</v>
+      <c r="F62" s="1">
+        <v>0.0021977848373353481</v>
       </c>
     </row>
     <row r="63">
@@ -1164,13 +1356,16 @@
         <v>4</v>
       </c>
       <c r="C63" s="1">
-        <v>33472.5390625</v>
-      </c>
-      <c r="D63" s="2">
+        <v>21252714.208602905</v>
+      </c>
+      <c r="D63" s="1">
+        <v>28117.837890625</v>
+      </c>
+      <c r="E63" s="2">
         <v>104251</v>
       </c>
-      <c r="E63" s="1">
-        <v>1.7683740693996697e-08</v>
+      <c r="F63" s="1">
+        <v>0.0013230233453214169</v>
       </c>
     </row>
     <row r="64">
@@ -1181,13 +1376,16 @@
         <v>4</v>
       </c>
       <c r="C64" s="1">
-        <v>94485.3125</v>
-      </c>
-      <c r="D64" s="2">
+        <v>10294373.378753662</v>
+      </c>
+      <c r="D64" s="1">
+        <v>97040.53125</v>
+      </c>
+      <c r="E64" s="2">
         <v>104251</v>
       </c>
-      <c r="E64" s="1">
-        <v>1.0207305223275398e-07</v>
+      <c r="F64" s="1">
+        <v>0.009426560252904892</v>
       </c>
     </row>
     <row r="65">
@@ -1198,13 +1396,16 @@
         <v>4</v>
       </c>
       <c r="C65" s="1">
-        <v>43656.109375</v>
-      </c>
-      <c r="D65" s="2">
+        <v>9254571.3768005371</v>
+      </c>
+      <c r="D65" s="1">
+        <v>16215.6904296875</v>
+      </c>
+      <c r="E65" s="2">
         <v>104251</v>
       </c>
-      <c r="E65" s="1">
-        <v>5.175373374299852e-08</v>
+      <c r="F65" s="1">
+        <v>0.0017521816771477461</v>
       </c>
     </row>
     <row r="66">
@@ -1215,13 +1416,16 @@
         <v>4</v>
       </c>
       <c r="C66" s="1">
-        <v>23623.123046875</v>
-      </c>
-      <c r="D66" s="2">
+        <v>5221157.0129394531</v>
+      </c>
+      <c r="D66" s="1">
+        <v>10365.4443359375</v>
+      </c>
+      <c r="E66" s="2">
         <v>104251</v>
       </c>
-      <c r="E66" s="1">
-        <v>4.9099259769036507e-08</v>
+      <c r="F66" s="1">
+        <v>0.0019852772820740938</v>
       </c>
     </row>
     <row r="67">
@@ -1232,13 +1436,16 @@
         <v>4</v>
       </c>
       <c r="C67" s="1">
-        <v>7630.119140625</v>
-      </c>
-      <c r="D67" s="2">
+        <v>4942172.721862793</v>
+      </c>
+      <c r="D67" s="1">
+        <v>5789.8037109375</v>
+      </c>
+      <c r="E67" s="2">
         <v>104251</v>
       </c>
-      <c r="E67" s="1">
-        <v>1.6563140192715764e-08</v>
+      <c r="F67" s="1">
+        <v>0.0011715097352862358</v>
       </c>
     </row>
     <row r="68">
@@ -1249,13 +1456,16 @@
         <v>4</v>
       </c>
       <c r="C68" s="1">
-        <v>15895.115234375</v>
-      </c>
-      <c r="D68" s="2">
+        <v>3990679.4891357422</v>
+      </c>
+      <c r="D68" s="1">
+        <v>10714.201171875</v>
+      </c>
+      <c r="E68" s="2">
         <v>104251</v>
       </c>
-      <c r="E68" s="1">
-        <v>4.2105622100052642e-08</v>
+      <c r="F68" s="1">
+        <v>0.002684806240722537</v>
       </c>
     </row>
     <row r="69">
@@ -1266,13 +1476,16 @@
         <v>4</v>
       </c>
       <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="2">
+        <v>2106215.8489227295</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3806.5068359375</v>
+      </c>
+      <c r="E69" s="2">
         <v>104251</v>
       </c>
-      <c r="E69" s="1">
-        <v>0</v>
+      <c r="F69" s="1">
+        <v>0.0018072728998959064</v>
       </c>
     </row>
     <row r="70">
@@ -1283,13 +1496,16 @@
         <v>4</v>
       </c>
       <c r="C70" s="1">
-        <v>2566.891845703125</v>
-      </c>
-      <c r="D70" s="2">
+        <v>2926799.0379333496</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3239.448974609375</v>
+      </c>
+      <c r="E70" s="2">
         <v>104251</v>
       </c>
-      <c r="E70" s="1">
-        <v>9.0793621509988043e-09</v>
+      <c r="F70" s="1">
+        <v>0.001106823212467134</v>
       </c>
     </row>
     <row r="71">
@@ -1300,13 +1516,16 @@
         <v>4</v>
       </c>
       <c r="C71" s="1">
-        <v>2255.0791015625</v>
-      </c>
-      <c r="D71" s="2">
+        <v>2066948.8639831543</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2481.369873046875</v>
+      </c>
+      <c r="E71" s="2">
         <v>104251</v>
       </c>
-      <c r="E71" s="1">
-        <v>1.1230409491247428e-08</v>
+      <c r="F71" s="1">
+        <v>0.00120049889665097</v>
       </c>
     </row>
     <row r="72">
@@ -1317,13 +1536,16 @@
         <v>4</v>
       </c>
       <c r="C72" s="1">
-        <v>1192.96533203125</v>
-      </c>
-      <c r="D72" s="2">
+        <v>2121538.7115478516</v>
+      </c>
+      <c r="D72" s="1">
+        <v>497.12643432617188</v>
+      </c>
+      <c r="E72" s="2">
         <v>104251</v>
       </c>
-      <c r="E72" s="1">
-        <v>5.7663567254451209e-09</v>
+      <c r="F72" s="1">
+        <v>0.00023432352463714778</v>
       </c>
     </row>
     <row r="73">
@@ -1334,13 +1556,16 @@
         <v>4</v>
       </c>
       <c r="C73" s="1">
-        <v>0</v>
-      </c>
-      <c r="D73" s="2">
+        <v>973526.56936645508</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
         <v>104251</v>
       </c>
-      <c r="E73" s="1">
-        <v>0</v>
+      <c r="F73" s="1">
+        <v>1.0271933206240647e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1351,13 +1576,16 @@
         <v>4</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
-      </c>
-      <c r="D74" s="2">
+        <v>972189.28337097168</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2">
         <v>104251</v>
       </c>
-      <c r="E74" s="1">
-        <v>0</v>
+      <c r="F74" s="1">
+        <v>1.0286063343301066e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1368,13 +1596,16 @@
         <v>4</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2">
+        <v>446174.12567138672</v>
+      </c>
+      <c r="D75" s="1">
+        <v>53.702713012695313</v>
+      </c>
+      <c r="E75" s="2">
         <v>104251</v>
       </c>
-      <c r="E75" s="1">
-        <v>0</v>
+      <c r="F75" s="1">
+        <v>0.00012036268162773922</v>
       </c>
     </row>
     <row r="76">
@@ -1385,13 +1616,16 @@
         <v>4</v>
       </c>
       <c r="C76" s="1">
-        <v>0</v>
-      </c>
-      <c r="D76" s="2">
+        <v>452284.0518951416</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
         <v>104251</v>
       </c>
-      <c r="E76" s="1">
-        <v>0</v>
+      <c r="F76" s="1">
+        <v>2.210999809904024e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1402,13 +1636,16 @@
         <v>4</v>
       </c>
       <c r="C77" s="1">
-        <v>0</v>
-      </c>
-      <c r="D77" s="2">
+        <v>154776.07345581055</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2">
         <v>104251</v>
       </c>
-      <c r="E77" s="1">
-        <v>0</v>
+      <c r="F77" s="1">
+        <v>6.460947133746231e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1419,13 +1656,16 @@
         <v>4</v>
       </c>
       <c r="C78" s="1">
-        <v>0</v>
-      </c>
-      <c r="D78" s="2">
+        <v>60746.269226074219</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2">
         <v>104251</v>
       </c>
-      <c r="E78" s="1">
-        <v>0</v>
+      <c r="F78" s="1">
+        <v>1.6461915947729722e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1436,13 +1676,16 @@
         <v>4</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2">
+        <v>40497.51091003418</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2">
         <v>104251</v>
       </c>
-      <c r="E79" s="1">
-        <v>0</v>
+      <c r="F79" s="1">
+        <v>2.4692875740583986e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1453,13 +1696,16 @@
         <v>5</v>
       </c>
       <c r="C80" s="1">
-        <v>40255.171875</v>
-      </c>
-      <c r="D80" s="2">
+        <v>1264938.232421875</v>
+      </c>
+      <c r="D80" s="1">
+        <v>29103.9921875</v>
+      </c>
+      <c r="E80" s="2">
         <v>544681</v>
       </c>
-      <c r="E80" s="1">
-        <v>5.951897463774003e-08</v>
+      <c r="F80" s="1">
+        <v>0.023008231073617935</v>
       </c>
     </row>
     <row r="81">
@@ -1470,13 +1716,16 @@
         <v>5</v>
       </c>
       <c r="C81" s="1">
-        <v>44731.3671875</v>
-      </c>
-      <c r="D81" s="2">
+        <v>15898425.872802734</v>
+      </c>
+      <c r="D81" s="1">
+        <v>50032.640625</v>
+      </c>
+      <c r="E81" s="2">
         <v>544681</v>
       </c>
-      <c r="E81" s="1">
-        <v>5.3882494022161609e-09</v>
+      <c r="F81" s="1">
+        <v>0.0031470186077058315</v>
       </c>
     </row>
     <row r="82">
@@ -1487,13 +1736,16 @@
         <v>5</v>
       </c>
       <c r="C82" s="1">
-        <v>47817.0625</v>
-      </c>
-      <c r="D82" s="2">
+        <v>19060770.99609375</v>
+      </c>
+      <c r="D82" s="1">
+        <v>55395.890625</v>
+      </c>
+      <c r="E82" s="2">
         <v>544681</v>
       </c>
-      <c r="E82" s="1">
-        <v>4.7852926066127566e-09</v>
+      <c r="F82" s="1">
+        <v>0.0029062775429338217</v>
       </c>
     </row>
     <row r="83">
@@ -1504,13 +1756,16 @@
         <v>5</v>
       </c>
       <c r="C83" s="1">
-        <v>66415.2265625</v>
-      </c>
-      <c r="D83" s="2">
+        <v>22156789.794921875</v>
+      </c>
+      <c r="D83" s="1">
+        <v>71883.3828125</v>
+      </c>
+      <c r="E83" s="2">
         <v>544681</v>
       </c>
-      <c r="E83" s="1">
-        <v>5.8690048376774939e-09</v>
+      <c r="F83" s="1">
+        <v>0.0032443050295114517</v>
       </c>
     </row>
     <row r="84">
@@ -1521,13 +1776,16 @@
         <v>5</v>
       </c>
       <c r="C84" s="1">
-        <v>162932.21875</v>
-      </c>
-      <c r="D84" s="2">
+        <v>9027962.40234375</v>
+      </c>
+      <c r="D84" s="1">
+        <v>128631.1328125</v>
+      </c>
+      <c r="E84" s="2">
         <v>544681</v>
       </c>
-      <c r="E84" s="1">
-        <v>3.6786346413464344e-08</v>
+      <c r="F84" s="1">
+        <v>0.014248080551624298</v>
       </c>
     </row>
     <row r="85">
@@ -1538,13 +1796,16 @@
         <v>5</v>
       </c>
       <c r="C85" s="1">
-        <v>272734.34375</v>
-      </c>
-      <c r="D85" s="2">
+        <v>9068628.90625</v>
+      </c>
+      <c r="D85" s="1">
+        <v>223461.390625</v>
+      </c>
+      <c r="E85" s="2">
         <v>544681</v>
       </c>
-      <c r="E85" s="1">
-        <v>6.4069986649428756e-08</v>
+      <c r="F85" s="1">
+        <v>0.024641143158078194</v>
       </c>
     </row>
     <row r="86">
@@ -1555,13 +1816,16 @@
         <v>5</v>
       </c>
       <c r="C86" s="1">
-        <v>115123.953125</v>
-      </c>
-      <c r="D86" s="2">
+        <v>6862453.61328125</v>
+      </c>
+      <c r="D86" s="1">
+        <v>140919.203125</v>
+      </c>
+      <c r="E86" s="2">
         <v>544681</v>
       </c>
-      <c r="E86" s="1">
-        <v>3.6536917491503118e-08</v>
+      <c r="F86" s="1">
+        <v>0.020534813404083252</v>
       </c>
     </row>
     <row r="87">
@@ -1572,13 +1836,16 @@
         <v>5</v>
       </c>
       <c r="C87" s="1">
-        <v>55051.80078125</v>
-      </c>
-      <c r="D87" s="2">
+        <v>9198800.5218505859</v>
+      </c>
+      <c r="D87" s="1">
+        <v>76175.546875</v>
+      </c>
+      <c r="E87" s="2">
         <v>544681</v>
       </c>
-      <c r="E87" s="1">
-        <v>1.2987923625473741e-08</v>
+      <c r="F87" s="1">
+        <v>0.0082810306921601295</v>
       </c>
     </row>
     <row r="88">
@@ -1589,13 +1856,16 @@
         <v>5</v>
       </c>
       <c r="C88" s="1">
-        <v>52168.01953125</v>
-      </c>
-      <c r="D88" s="2">
+        <v>12330866.884231567</v>
+      </c>
+      <c r="D88" s="1">
+        <v>61683.2578125</v>
+      </c>
+      <c r="E88" s="2">
         <v>544681</v>
       </c>
-      <c r="E88" s="1">
-        <v>9.1612513131167361e-09</v>
+      <c r="F88" s="1">
+        <v>0.0050023454241454601</v>
       </c>
     </row>
     <row r="89">
@@ -1606,13 +1876,16 @@
         <v>5</v>
       </c>
       <c r="C89" s="1">
-        <v>36354.8671875</v>
-      </c>
-      <c r="D89" s="2">
+        <v>21252714.208602905</v>
+      </c>
+      <c r="D89" s="1">
+        <v>65187.88671875</v>
+      </c>
+      <c r="E89" s="2">
         <v>544681</v>
       </c>
-      <c r="E89" s="1">
-        <v>3.6760889887688109e-09</v>
+      <c r="F89" s="1">
+        <v>0.0030672734137624502</v>
       </c>
     </row>
     <row r="90">
@@ -1623,13 +1896,16 @@
         <v>5</v>
       </c>
       <c r="C90" s="1">
-        <v>20066.462890625</v>
-      </c>
-      <c r="D90" s="2">
+        <v>10294373.378753662</v>
+      </c>
+      <c r="D90" s="1">
+        <v>33684.73828125</v>
+      </c>
+      <c r="E90" s="2">
         <v>544681</v>
       </c>
-      <c r="E90" s="1">
-        <v>4.149116605844938e-09</v>
+      <c r="F90" s="1">
+        <v>0.0032721504103392363</v>
       </c>
     </row>
     <row r="91">
@@ -1640,13 +1916,16 @@
         <v>5</v>
       </c>
       <c r="C91" s="1">
-        <v>22508.556640625</v>
-      </c>
-      <c r="D91" s="2">
+        <v>9254571.3768005371</v>
+      </c>
+      <c r="D91" s="1">
+        <v>33559.91015625</v>
+      </c>
+      <c r="E91" s="2">
         <v>544681</v>
       </c>
-      <c r="E91" s="1">
-        <v>5.1071933349078336e-09</v>
+      <c r="F91" s="1">
+        <v>0.0036263063084334135</v>
       </c>
     </row>
     <row r="92">
@@ -1657,13 +1936,16 @@
         <v>5</v>
       </c>
       <c r="C92" s="1">
-        <v>31941.232421875</v>
-      </c>
-      <c r="D92" s="2">
+        <v>5221157.0129394531</v>
+      </c>
+      <c r="D92" s="1">
+        <v>17296.1953125</v>
+      </c>
+      <c r="E92" s="2">
         <v>544681</v>
       </c>
-      <c r="E92" s="1">
-        <v>1.2706539820328544e-08</v>
+      <c r="F92" s="1">
+        <v>0.0033127130009233952</v>
       </c>
     </row>
     <row r="93">
@@ -1674,13 +1956,16 @@
         <v>5</v>
       </c>
       <c r="C93" s="1">
-        <v>32166.447265625</v>
-      </c>
-      <c r="D93" s="2">
+        <v>4942172.721862793</v>
+      </c>
+      <c r="D93" s="1">
+        <v>17406.576171875</v>
+      </c>
+      <c r="E93" s="2">
         <v>544681</v>
       </c>
-      <c r="E93" s="1">
-        <v>1.336449173550136e-08</v>
+      <c r="F93" s="1">
+        <v>0.0035220494028180838</v>
       </c>
     </row>
     <row r="94">
@@ -1691,13 +1976,16 @@
         <v>5</v>
       </c>
       <c r="C94" s="1">
-        <v>8813.248046875</v>
-      </c>
-      <c r="D94" s="2">
+        <v>3990679.4891357422</v>
+      </c>
+      <c r="D94" s="1">
+        <v>8982.533203125</v>
+      </c>
+      <c r="E94" s="2">
         <v>544681</v>
       </c>
-      <c r="E94" s="1">
-        <v>4.4683834410363943e-09</v>
+      <c r="F94" s="1">
+        <v>0.0022508781403303146</v>
       </c>
     </row>
     <row r="95">
@@ -1708,13 +1996,16 @@
         <v>5</v>
       </c>
       <c r="C95" s="1">
-        <v>4432.89013671875</v>
-      </c>
-      <c r="D95" s="2">
+        <v>2106215.8489227295</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1941.474365234375</v>
+      </c>
+      <c r="E95" s="2">
         <v>544681</v>
       </c>
-      <c r="E95" s="1">
-        <v>4.1981791376599631e-09</v>
+      <c r="F95" s="1">
+        <v>0.00092178321210667491</v>
       </c>
     </row>
     <row r="96">
@@ -1725,13 +2016,16 @@
         <v>5</v>
       </c>
       <c r="C96" s="1">
-        <v>3542.29150390625</v>
-      </c>
-      <c r="D96" s="2">
+        <v>2926799.0379333496</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1389.294921875</v>
+      </c>
+      <c r="E96" s="2">
         <v>544681</v>
       </c>
-      <c r="E96" s="1">
-        <v>2.3981152619256818e-09</v>
+      <c r="F96" s="1">
+        <v>0.00047468068078160286</v>
       </c>
     </row>
     <row r="97">
@@ -1742,13 +2036,16 @@
         <v>5</v>
       </c>
       <c r="C97" s="1">
-        <v>509.02639770507813</v>
-      </c>
-      <c r="D97" s="2">
+        <v>2066948.8639831543</v>
+      </c>
+      <c r="D97" s="1">
+        <v>251.79917907714844</v>
+      </c>
+      <c r="E97" s="2">
         <v>544681</v>
       </c>
-      <c r="E97" s="1">
-        <v>4.8519033235550069e-10</v>
+      <c r="F97" s="1">
+        <v>0.00012182167847640812</v>
       </c>
     </row>
     <row r="98">
@@ -1759,13 +2056,16 @@
         <v>5</v>
       </c>
       <c r="C98" s="1">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2">
+        <v>2121538.7115478516</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2">
         <v>544681</v>
       </c>
-      <c r="E98" s="1">
-        <v>0</v>
+      <c r="F98" s="1">
+        <v>4.7135600311776216e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1776,13 +2076,16 @@
         <v>5</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
-      </c>
-      <c r="D99" s="2">
+        <v>973526.56936645508</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1.5880948305130005</v>
+      </c>
+      <c r="E99" s="2">
         <v>544681</v>
       </c>
-      <c r="E99" s="1">
-        <v>0</v>
+      <c r="F99" s="1">
+        <v>1.6312803836626699e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1793,13 +2096,16 @@
         <v>5</v>
       </c>
       <c r="C100" s="1">
-        <v>0</v>
-      </c>
-      <c r="D100" s="2">
+        <v>972189.28337097168</v>
+      </c>
+      <c r="D100" s="1">
+        <v>575.76568603515625</v>
+      </c>
+      <c r="E100" s="2">
         <v>544681</v>
       </c>
-      <c r="E100" s="1">
-        <v>0</v>
+      <c r="F100" s="1">
+        <v>0.00059223617427051067</v>
       </c>
     </row>
     <row r="101">
@@ -1810,13 +2116,16 @@
         <v>5</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
-      </c>
-      <c r="D101" s="2">
+        <v>446174.12567138672</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2">
         <v>544681</v>
       </c>
-      <c r="E101" s="1">
-        <v>0</v>
+      <c r="F101" s="1">
+        <v>2.2412773432733957e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1827,13 +2136,16 @@
         <v>5</v>
       </c>
       <c r="C102" s="1">
-        <v>0</v>
-      </c>
-      <c r="D102" s="2">
+        <v>452284.0518951416</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2">
         <v>544681</v>
       </c>
-      <c r="E102" s="1">
-        <v>0</v>
+      <c r="F102" s="1">
+        <v>2.210999809904024e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1844,13 +2156,16 @@
         <v>5</v>
       </c>
       <c r="C103" s="1">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2">
+        <v>154776.07345581055</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1</v>
+      </c>
+      <c r="E103" s="2">
         <v>544681</v>
       </c>
-      <c r="E103" s="1">
-        <v>0</v>
+      <c r="F103" s="1">
+        <v>6.460947133746231e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1861,13 +2176,16 @@
         <v>5</v>
       </c>
       <c r="C104" s="1">
-        <v>0</v>
-      </c>
-      <c r="D104" s="2">
+        <v>60746.269226074219</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2">
         <v>544681</v>
       </c>
-      <c r="E104" s="1">
-        <v>0</v>
+      <c r="F104" s="1">
+        <v>1.6461915947729722e-05</v>
       </c>
     </row>
     <row r="105">
@@ -1878,13 +2196,16 @@
         <v>5</v>
       </c>
       <c r="C105" s="1">
-        <v>0</v>
-      </c>
-      <c r="D105" s="2">
+        <v>40497.51091003418</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="2">
         <v>544681</v>
       </c>
-      <c r="E105" s="1">
-        <v>0</v>
+      <c r="F105" s="1">
+        <v>2.4692875740583986e-05</v>
       </c>
     </row>
     <row r="106">
@@ -1895,13 +2216,16 @@
         <v>6</v>
       </c>
       <c r="C106" s="1">
-        <v>7433.5439453125</v>
-      </c>
-      <c r="D106" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E106" s="1">
-        <v>1.3073223614767926e-09</v>
+        <v>1264938.232421875</v>
+      </c>
+      <c r="D106" s="1">
+        <v>180.49602699279785</v>
+      </c>
+      <c r="E106" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.00014269156963564456</v>
       </c>
     </row>
     <row r="107">
@@ -1912,13 +2236,16 @@
         <v>6</v>
       </c>
       <c r="C107" s="1">
-        <v>7155.044921875</v>
-      </c>
-      <c r="D107" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E107" s="1">
-        <v>1.0251818144402236e-10</v>
+        <v>15898425.872802734</v>
+      </c>
+      <c r="D107" s="1">
+        <v>152.10235595703125</v>
+      </c>
+      <c r="E107" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F107" s="1">
+        <v>9.5671330200275406e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1929,13 +2256,16 @@
         <v>6</v>
       </c>
       <c r="C108" s="1">
-        <v>14310.08984375</v>
-      </c>
-      <c r="D108" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E108" s="1">
-        <v>1.7034169907947927e-10</v>
+        <v>19060770.99609375</v>
+      </c>
+      <c r="D108" s="1">
+        <v>168.40696716308594</v>
+      </c>
+      <c r="E108" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F108" s="1">
+        <v>8.8352653619949706e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1946,13 +2276,16 @@
         <v>6</v>
       </c>
       <c r="C109" s="1">
-        <v>71550.453125</v>
-      </c>
-      <c r="D109" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E109" s="1">
-        <v>7.5207678973399084e-10</v>
+        <v>22156789.794921875</v>
+      </c>
+      <c r="D109" s="1">
+        <v>218.52995300292969</v>
+      </c>
+      <c r="E109" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F109" s="1">
+        <v>9.8628888736129738e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1963,13 +2296,16 @@
         <v>6</v>
       </c>
       <c r="C110" s="1">
-        <v>450767.84375</v>
-      </c>
-      <c r="D110" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E110" s="1">
-        <v>1.2105579649812626e-08</v>
+        <v>9027962.40234375</v>
+      </c>
+      <c r="D110" s="1">
+        <v>391.04666137695313</v>
+      </c>
+      <c r="E110" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F110" s="1">
+        <v>4.3315052607795224e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1980,13 +2316,16 @@
         <v>6</v>
       </c>
       <c r="C111" s="1">
-        <v>918098.125</v>
-      </c>
-      <c r="D111" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E111" s="1">
-        <v>2.565410639476795e-08</v>
+        <v>9068628.90625</v>
+      </c>
+      <c r="D111" s="1">
+        <v>679.3365478515625</v>
+      </c>
+      <c r="E111" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F111" s="1">
+        <v>7.491061114706099e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1997,13 +2336,16 @@
         <v>6</v>
       </c>
       <c r="C112" s="1">
-        <v>1617040.125</v>
-      </c>
-      <c r="D112" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E112" s="1">
-        <v>6.1043579080433119e-08</v>
+        <v>6862453.61328125</v>
+      </c>
+      <c r="D112" s="1">
+        <v>428.40313720703125</v>
+      </c>
+      <c r="E112" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F112" s="1">
+        <v>6.2427105149254203e-05</v>
       </c>
     </row>
     <row r="113">
@@ -2014,13 +2356,16 @@
         <v>6</v>
       </c>
       <c r="C113" s="1">
-        <v>1438164</v>
-      </c>
-      <c r="D113" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E113" s="1">
-        <v>4.035799960888653e-08</v>
+        <v>9198800.5218505859</v>
+      </c>
+      <c r="D113" s="1">
+        <v>231.57841491699219</v>
+      </c>
+      <c r="E113" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2.5174849724862725e-05</v>
       </c>
     </row>
     <row r="114">
@@ -2031,13 +2376,16 @@
         <v>6</v>
       </c>
       <c r="C114" s="1">
-        <v>1996609.5</v>
-      </c>
-      <c r="D114" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E114" s="1">
-        <v>4.1705813913495149e-08</v>
+        <v>12330866.884231567</v>
+      </c>
+      <c r="D114" s="1">
+        <v>95.509941101074219</v>
+      </c>
+      <c r="E114" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F114" s="1">
+        <v>7.7455979408114217e-06</v>
       </c>
     </row>
     <row r="115">
@@ -2048,13 +2396,16 @@
         <v>6</v>
       </c>
       <c r="C115" s="1">
-        <v>2159362.25</v>
-      </c>
-      <c r="D115" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E115" s="1">
-        <v>2.5971795380996809e-08</v>
+        <v>21252714.208602905</v>
+      </c>
+      <c r="D115" s="1">
+        <v>12171.7392578125</v>
+      </c>
+      <c r="E115" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.0005727146053686738</v>
       </c>
     </row>
     <row r="116">
@@ -2065,13 +2416,16 @@
         <v>6</v>
       </c>
       <c r="C116" s="1">
-        <v>2021411.5</v>
-      </c>
-      <c r="D116" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E116" s="1">
-        <v>4.9715580985321139e-08</v>
+        <v>10294373.378753662</v>
+      </c>
+      <c r="D116" s="1">
+        <v>6289.10595703125</v>
+      </c>
+      <c r="E116" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.00061092653777450323</v>
       </c>
     </row>
     <row r="117">
@@ -2082,13 +2436,16 @@
         <v>6</v>
       </c>
       <c r="C117" s="1">
-        <v>1787155.25</v>
-      </c>
-      <c r="D117" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E117" s="1">
-        <v>4.823362687034205e-08</v>
+        <v>9254571.3768005371</v>
+      </c>
+      <c r="D117" s="1">
+        <v>6330.93896484375</v>
+      </c>
+      <c r="E117" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.00068408774677664042</v>
       </c>
     </row>
     <row r="118">
@@ -2099,13 +2456,16 @@
         <v>6</v>
       </c>
       <c r="C118" s="1">
-        <v>553164.1875</v>
-      </c>
-      <c r="D118" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E118" s="1">
-        <v>2.6174758360753003e-08</v>
+        <v>5221157.0129394531</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3262.856201171875</v>
+      </c>
+      <c r="E118" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.00062492972938343883</v>
       </c>
     </row>
     <row r="119">
@@ -2116,13 +2476,16 @@
         <v>6</v>
       </c>
       <c r="C119" s="1">
-        <v>456487.625</v>
-      </c>
-      <c r="D119" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E119" s="1">
-        <v>2.2559596857263386e-08</v>
+        <v>4942172.721862793</v>
+      </c>
+      <c r="D119" s="1">
+        <v>3283.679443359375</v>
+      </c>
+      <c r="E119" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.00066442019306123257</v>
       </c>
     </row>
     <row r="120">
@@ -2133,13 +2496,16 @@
         <v>6</v>
       </c>
       <c r="C120" s="1">
-        <v>267396.40625</v>
-      </c>
-      <c r="D120" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E120" s="1">
-        <v>1.6125863311344801e-08</v>
+        <v>3990679.4891357422</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1694.51806640625</v>
+      </c>
+      <c r="E120" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.00042461892007850111</v>
       </c>
     </row>
     <row r="121">
@@ -2150,13 +2516,16 @@
         <v>6</v>
       </c>
       <c r="C121" s="1">
-        <v>142403.953125</v>
-      </c>
-      <c r="D121" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E121" s="1">
-        <v>1.6041649786302514e-08</v>
+        <v>2106215.8489227295</v>
+      </c>
+      <c r="D121" s="1">
+        <v>366.25119018554688</v>
+      </c>
+      <c r="E121" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.0001738906285027042</v>
       </c>
     </row>
     <row r="122">
@@ -2167,13 +2536,16 @@
         <v>6</v>
       </c>
       <c r="C122" s="1">
-        <v>67865.5625</v>
-      </c>
-      <c r="D122" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E122" s="1">
-        <v>5.4649751390911661e-09</v>
+        <v>2926799.0379333496</v>
+      </c>
+      <c r="D122" s="1">
+        <v>262.08477783203125</v>
+      </c>
+      <c r="E122" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F122" s="1">
+        <v>8.9546556409914047e-05</v>
       </c>
     </row>
     <row r="123">
@@ -2184,13 +2556,16 @@
         <v>6</v>
       </c>
       <c r="C123" s="1">
-        <v>34552.26171875</v>
-      </c>
-      <c r="D123" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E123" s="1">
-        <v>3.917430380084852e-09</v>
+        <v>2066948.8639831543</v>
+      </c>
+      <c r="D123" s="1">
+        <v>47.500885009765625</v>
+      </c>
+      <c r="E123" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2.2981161237112246e-05</v>
       </c>
     </row>
     <row r="124">
@@ -2201,13 +2576,16 @@
         <v>6</v>
       </c>
       <c r="C124" s="1">
-        <v>115662.046875</v>
-      </c>
-      <c r="D124" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E124" s="1">
-        <v>1.2727864984185544e-08</v>
+        <v>2121538.7115478516</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F124" s="1">
+        <v>4.7135600311776216e-07</v>
       </c>
     </row>
     <row r="125">
@@ -2218,13 +2596,16 @@
         <v>6</v>
       </c>
       <c r="C125" s="1">
-        <v>9684.4287109375</v>
-      </c>
-      <c r="D125" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E125" s="1">
-        <v>2.335557747201733e-09</v>
+        <v>973526.56936645508</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.29958760738372803</v>
+      </c>
+      <c r="E125" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F125" s="1">
+        <v>3.07734381976843e-07</v>
       </c>
     </row>
     <row r="126">
@@ -2235,13 +2616,16 @@
         <v>6</v>
       </c>
       <c r="C126" s="1">
-        <v>19772.45703125</v>
-      </c>
-      <c r="D126" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E126" s="1">
-        <v>4.724049595949964e-09</v>
+        <v>972189.28337097168</v>
+      </c>
+      <c r="D126" s="1">
+        <v>108.61583709716797</v>
+      </c>
+      <c r="E126" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.00011172293307026848</v>
       </c>
     </row>
     <row r="127">
@@ -2252,13 +2636,16 @@
         <v>6</v>
       </c>
       <c r="C127" s="1">
-        <v>0</v>
-      </c>
-      <c r="D127" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0</v>
+        <v>446174.12567138672</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F127" s="1">
+        <v>2.2412773432733957e-06</v>
       </c>
     </row>
     <row r="128">
@@ -2269,13 +2656,16 @@
         <v>6</v>
       </c>
       <c r="C128" s="1">
-        <v>0</v>
-      </c>
-      <c r="D128" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0</v>
+        <v>452284.0518951416</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F128" s="1">
+        <v>2.210999809904024e-06</v>
       </c>
     </row>
     <row r="129">
@@ -2286,13 +2676,16 @@
         <v>6</v>
       </c>
       <c r="C129" s="1">
-        <v>6824.20654296875</v>
-      </c>
-      <c r="D129" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E129" s="1">
-        <v>1.0238446535026924e-08</v>
+        <v>154776.07345581055</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+      <c r="E129" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F129" s="1">
+        <v>6.460947133746231e-06</v>
       </c>
     </row>
     <row r="130">
@@ -2303,13 +2696,16 @@
         <v>6</v>
       </c>
       <c r="C130" s="1">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E130" s="1">
-        <v>0</v>
+        <v>60746.269226074219</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1.6461915947729722e-05</v>
       </c>
     </row>
     <row r="131">
@@ -2320,13 +2716,16 @@
         <v>6</v>
       </c>
       <c r="C131" s="1">
-        <v>13457.2890625</v>
-      </c>
-      <c r="D131" s="2">
-        <v>4579196</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1.0286920115731846e-07</v>
+        <v>40497.51091003418</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="2">
+        <v>26646</v>
+      </c>
+      <c r="F131" s="1">
+        <v>2.4692875740583986e-05</v>
       </c>
     </row>
     <row r="132">
@@ -2337,13 +2736,16 @@
         <v>7</v>
       </c>
       <c r="C132" s="1">
-        <v>9658.5849609375</v>
-      </c>
-      <c r="D132" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E132" s="1">
-        <v>2.2385584497186528e-09</v>
+        <v>1264938.232421875</v>
+      </c>
+      <c r="D132" s="1">
+        <v>13443.02294921875</v>
+      </c>
+      <c r="E132" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0.010627414099872112</v>
       </c>
     </row>
     <row r="133">
@@ -2354,13 +2756,16 @@
         <v>7</v>
       </c>
       <c r="C133" s="1">
-        <v>48326.015625</v>
-      </c>
-      <c r="D133" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E133" s="1">
-        <v>9.1251012301896139e-10</v>
+        <v>15898425.872802734</v>
+      </c>
+      <c r="D133" s="1">
+        <v>9091.7099609375</v>
+      </c>
+      <c r="E133" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.0005718622705899179</v>
       </c>
     </row>
     <row r="134">
@@ -2371,13 +2776,16 @@
         <v>7</v>
       </c>
       <c r="C134" s="1">
-        <v>67656.4296875</v>
-      </c>
-      <c r="D134" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E134" s="1">
-        <v>1.0613432355199848e-09</v>
+        <v>19060770.99609375</v>
+      </c>
+      <c r="D134" s="1">
+        <v>18183.419921875</v>
+      </c>
+      <c r="E134" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0.0009539708262309432</v>
       </c>
     </row>
     <row r="135">
@@ -2388,13 +2796,16 @@
         <v>7</v>
       </c>
       <c r="C135" s="1">
-        <v>48326.015625</v>
-      </c>
-      <c r="D135" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E135" s="1">
-        <v>6.6942040799489178e-10</v>
+        <v>22156789.794921875</v>
+      </c>
+      <c r="D135" s="1">
+        <v>68187.8203125</v>
+      </c>
+      <c r="E135" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0.0030775135383009911</v>
       </c>
     </row>
     <row r="136">
@@ -2405,13 +2816,16 @@
         <v>7</v>
       </c>
       <c r="C136" s="1">
-        <v>106317.2421875</v>
-      </c>
-      <c r="D136" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E136" s="1">
-        <v>3.7627430060638289e-09</v>
+        <v>9027962.40234375</v>
+      </c>
+      <c r="D136" s="1">
+        <v>388670.59375</v>
+      </c>
+      <c r="E136" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0.043051861226558685</v>
       </c>
     </row>
     <row r="137">
@@ -2422,13 +2836,16 @@
         <v>7</v>
       </c>
       <c r="C137" s="1">
-        <v>473595</v>
-      </c>
-      <c r="D137" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E137" s="1">
-        <v>1.7439862887158597e-08</v>
+        <v>9068628.90625</v>
+      </c>
+      <c r="D137" s="1">
+        <v>892014.625</v>
+      </c>
+      <c r="E137" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0.098362676799297333</v>
       </c>
     </row>
     <row r="138">
@@ -2439,13 +2856,16 @@
         <v>7</v>
       </c>
       <c r="C138" s="1">
-        <v>658038.4375</v>
-      </c>
-      <c r="D138" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E138" s="1">
-        <v>3.2736981125935927e-08</v>
+        <v>6862453.61328125</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1672874.625</v>
+      </c>
+      <c r="E138" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.24377208948135376</v>
       </c>
     </row>
     <row r="139">
@@ -2456,13 +2876,16 @@
         <v>7</v>
       </c>
       <c r="C139" s="1">
-        <v>1198485.25</v>
-      </c>
-      <c r="D139" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E139" s="1">
-        <v>4.4322277403807675e-08</v>
+        <v>9198800.5218505859</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1722879.25</v>
+      </c>
+      <c r="E139" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0.18729390203952789</v>
       </c>
     </row>
     <row r="140">
@@ -2473,13 +2896,16 @@
         <v>7</v>
       </c>
       <c r="C140" s="1">
-        <v>1556097.75</v>
-      </c>
-      <c r="D140" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E140" s="1">
-        <v>4.2835960556431019e-08</v>
+        <v>12330866.884231567</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2179945.75</v>
+      </c>
+      <c r="E140" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F140" s="1">
+        <v>0.17678771913051605</v>
       </c>
     </row>
     <row r="141">
@@ -2490,13 +2916,16 @@
         <v>7</v>
       </c>
       <c r="C141" s="1">
-        <v>1682867.25</v>
-      </c>
-      <c r="D141" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E141" s="1">
-        <v>2.6674388919900593e-08</v>
+        <v>21252714.208602905</v>
+      </c>
+      <c r="D141" s="1">
+        <v>2146865</v>
+      </c>
+      <c r="E141" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0.10101603716611862</v>
       </c>
     </row>
     <row r="142">
@@ -2507,13 +2936,16 @@
         <v>7</v>
       </c>
       <c r="C142" s="1">
-        <v>1391789.25</v>
-      </c>
-      <c r="D142" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E142" s="1">
-        <v>4.5110688517979725e-08</v>
+        <v>10294373.378753662</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2126356.5</v>
+      </c>
+      <c r="E142" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0.20655521750450134</v>
       </c>
     </row>
     <row r="143">
@@ -2524,13 +2956,16 @@
         <v>7</v>
       </c>
       <c r="C143" s="1">
-        <v>1131112.75</v>
-      </c>
-      <c r="D143" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E143" s="1">
-        <v>4.0231082465425061e-08</v>
+        <v>9254571.3768005371</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1803709.375</v>
+      </c>
+      <c r="E143" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0.1948992908000946</v>
       </c>
     </row>
     <row r="144">
@@ -2541,13 +2976,16 @@
         <v>7</v>
       </c>
       <c r="C144" s="1">
-        <v>429373.28125</v>
-      </c>
-      <c r="D144" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E144" s="1">
-        <v>2.6775143879831376e-08</v>
+        <v>5221157.0129394531</v>
+      </c>
+      <c r="D144" s="1">
+        <v>557451.125</v>
+      </c>
+      <c r="E144" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0.10676773637533188</v>
       </c>
     </row>
     <row r="145">
@@ -2558,13 +2996,16 @@
         <v>7</v>
       </c>
       <c r="C145" s="1">
-        <v>168426.171875</v>
-      </c>
-      <c r="D145" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E145" s="1">
-        <v>1.0969329444776577e-08</v>
+        <v>4942172.721862793</v>
+      </c>
+      <c r="D145" s="1">
+        <v>222423.40625</v>
+      </c>
+      <c r="E145" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0.045005187392234802</v>
       </c>
     </row>
     <row r="146">
@@ -2575,13 +3016,16 @@
         <v>7</v>
       </c>
       <c r="C146" s="1">
-        <v>139996.90625</v>
-      </c>
-      <c r="D146" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E146" s="1">
-        <v>1.1126383370196891e-08</v>
+        <v>3990679.4891357422</v>
+      </c>
+      <c r="D146" s="1">
+        <v>130643.3671875</v>
+      </c>
+      <c r="E146" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0.032737124711275101</v>
       </c>
     </row>
     <row r="147">
@@ -2592,13 +3036,16 @@
         <v>7</v>
       </c>
       <c r="C147" s="1">
-        <v>86885.578125</v>
-      </c>
-      <c r="D147" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E147" s="1">
-        <v>1.2898607515410276e-08</v>
+        <v>2106215.8489227295</v>
+      </c>
+      <c r="D147" s="1">
+        <v>78947.546875</v>
+      </c>
+      <c r="E147" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0.037483122199773788</v>
       </c>
     </row>
     <row r="148">
@@ -2609,13 +3056,16 @@
         <v>7</v>
       </c>
       <c r="C148" s="1">
-        <v>109073.203125</v>
-      </c>
-      <c r="D148" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E148" s="1">
-        <v>1.1575106206862529e-08</v>
+        <v>2926799.0379333496</v>
+      </c>
+      <c r="D148" s="1">
+        <v>53178.76953125</v>
+      </c>
+      <c r="E148" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0.018169600516557693</v>
       </c>
     </row>
     <row r="149">
@@ -2626,13 +3076,16 @@
         <v>7</v>
       </c>
       <c r="C149" s="1">
-        <v>87982.21875</v>
-      </c>
-      <c r="D149" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E149" s="1">
-        <v>1.3145825761284868e-08</v>
+        <v>2066948.8639831543</v>
+      </c>
+      <c r="D149" s="1">
+        <v>18301.86328125</v>
+      </c>
+      <c r="E149" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0.0088545316830277443</v>
       </c>
     </row>
     <row r="150">
@@ -2643,13 +3096,16 @@
         <v>7</v>
       </c>
       <c r="C150" s="1">
-        <v>43076.60546875</v>
-      </c>
-      <c r="D150" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E150" s="1">
-        <v>6.2470406625436681e-09</v>
+        <v>2121538.7115478516</v>
+      </c>
+      <c r="D150" s="1">
+        <v>33230.90625</v>
+      </c>
+      <c r="E150" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0.015663586556911469</v>
       </c>
     </row>
     <row r="151">
@@ -2660,13 +3116,16 @@
         <v>7</v>
       </c>
       <c r="C151" s="1">
-        <v>70611.03125</v>
-      </c>
-      <c r="D151" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E151" s="1">
-        <v>2.2441779989890165e-08</v>
+        <v>973526.56936645508</v>
+      </c>
+      <c r="D151" s="1">
+        <v>28838.1875</v>
+      </c>
+      <c r="E151" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0.029622394591569901</v>
       </c>
     </row>
     <row r="152">
@@ -2677,13 +3136,16 @@
         <v>7</v>
       </c>
       <c r="C152" s="1">
-        <v>35623.24609375</v>
-      </c>
-      <c r="D152" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E152" s="1">
-        <v>1.1216451767381841e-08</v>
+        <v>972189.28337097168</v>
+      </c>
+      <c r="D152" s="1">
+        <v>5879.18310546875</v>
+      </c>
+      <c r="E152" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0.0060473647899925709</v>
       </c>
     </row>
     <row r="153">
@@ -2694,13 +3156,16 @@
         <v>7</v>
       </c>
       <c r="C153" s="1">
-        <v>8341.71875</v>
-      </c>
-      <c r="D153" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E153" s="1">
-        <v>5.7193676461508858e-09</v>
+        <v>446174.12567138672</v>
+      </c>
+      <c r="D153" s="1">
+        <v>314.47021484375</v>
+      </c>
+      <c r="E153" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0.00070481497095897794</v>
       </c>
     </row>
     <row r="154">
@@ -2711,13 +3176,16 @@
         <v>7</v>
       </c>
       <c r="C154" s="1">
-        <v>1754.3394775390625</v>
-      </c>
-      <c r="D154" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E154" s="1">
-        <v>1.1879841554929271e-09</v>
+        <v>452284.0518951416</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1</v>
+      </c>
+      <c r="E154" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F154" s="1">
+        <v>2.210999809904024e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2728,13 +3196,16 @@
         <v>7</v>
       </c>
       <c r="C155" s="1">
-        <v>9559.5439453125</v>
-      </c>
-      <c r="D155" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E155" s="1">
-        <v>1.8901108234103958e-08</v>
+        <v>154776.07345581055</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1572.2359619140625</v>
+      </c>
+      <c r="E155" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0.010158132761716843</v>
       </c>
     </row>
     <row r="156">
@@ -2745,13 +3216,16 @@
         <v>7</v>
       </c>
       <c r="C156" s="1">
-        <v>0</v>
-      </c>
-      <c r="D156" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E156" s="1">
-        <v>0</v>
+        <v>60746.269226074219</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1662.5887451171875</v>
+      </c>
+      <c r="E156" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0.027369396761059761</v>
       </c>
     </row>
     <row r="157">
@@ -2762,13 +3236,16 @@
         <v>7</v>
       </c>
       <c r="C157" s="1">
-        <v>0</v>
-      </c>
-      <c r="D157" s="2">
-        <v>3474730</v>
-      </c>
-      <c r="E157" s="1">
-        <v>0</v>
+        <v>40497.51091003418</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1662.5887451171875</v>
+      </c>
+      <c r="E157" s="2">
+        <v>4579196</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0.041054096072912216</v>
       </c>
     </row>
     <row r="158">
@@ -2779,13 +3256,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="1">
-        <v>0</v>
-      </c>
-      <c r="D158" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E158" s="1">
-        <v>0</v>
+        <v>1264938.232421875</v>
+      </c>
+      <c r="D158" s="1">
+        <v>4344.2998046875</v>
+      </c>
+      <c r="E158" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0.0034343968145549297</v>
       </c>
     </row>
     <row r="159">
@@ -2796,13 +3276,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="1">
-        <v>0</v>
-      </c>
-      <c r="D159" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E159" s="1">
-        <v>0</v>
+        <v>15898425.872802734</v>
+      </c>
+      <c r="D159" s="1">
+        <v>20007.62109375</v>
+      </c>
+      <c r="E159" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0.0012584655778482556</v>
       </c>
     </row>
     <row r="160">
@@ -2813,13 +3296,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="1">
-        <v>2711.146240234375</v>
-      </c>
-      <c r="D160" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E160" s="1">
-        <v>3.1275035339284329e-10</v>
+        <v>19060770.99609375</v>
+      </c>
+      <c r="D160" s="1">
+        <v>28899.896484375</v>
+      </c>
+      <c r="E160" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0.0015161976916715503</v>
       </c>
     </row>
     <row r="161">
@@ -2830,13 +3316,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="1">
-        <v>2711.146240234375</v>
-      </c>
-      <c r="D161" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E161" s="1">
-        <v>2.7616525732909736e-10</v>
+        <v>22156789.794921875</v>
+      </c>
+      <c r="D161" s="1">
+        <v>46684.4453125</v>
+      </c>
+      <c r="E161" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0.0021070039365440607</v>
       </c>
     </row>
     <row r="162">
@@ -2847,13 +3336,16 @@
         <v>8</v>
       </c>
       <c r="C162" s="1">
-        <v>10844.5849609375</v>
-      </c>
-      <c r="D162" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E162" s="1">
-        <v>2.8223565706753106e-09</v>
+        <v>9027962.40234375</v>
+      </c>
+      <c r="D162" s="1">
+        <v>157837.875</v>
+      </c>
+      <c r="E162" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0.017483223229646683</v>
       </c>
     </row>
     <row r="163">
@@ -2864,13 +3356,16 @@
         <v>8</v>
       </c>
       <c r="C163" s="1">
-        <v>32533.7578125</v>
-      </c>
-      <c r="D163" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E163" s="1">
-        <v>8.809845297719221e-09</v>
+        <v>9068628.90625</v>
+      </c>
+      <c r="D163" s="1">
+        <v>549351.25</v>
+      </c>
+      <c r="E163" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0.06057710200548172</v>
       </c>
     </row>
     <row r="164">
@@ -2881,13 +3376,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="1">
-        <v>95865.8125</v>
-      </c>
-      <c r="D164" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E164" s="1">
-        <v>3.5071089143912104e-08</v>
+        <v>6862453.61328125</v>
+      </c>
+      <c r="D164" s="1">
+        <v>936842.6875</v>
+      </c>
+      <c r="E164" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0.13651716709136963</v>
       </c>
     </row>
     <row r="165">
@@ -2898,13 +3396,16 @@
         <v>8</v>
       </c>
       <c r="C165" s="1">
-        <v>159975.875</v>
-      </c>
-      <c r="D165" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E165" s="1">
-        <v>4.3505281155375997e-08</v>
+        <v>9198800.5218505859</v>
+      </c>
+      <c r="D165" s="1">
+        <v>1302913.375</v>
+      </c>
+      <c r="E165" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0.14163948595523834</v>
       </c>
     </row>
     <row r="166">
@@ -2915,13 +3416,16 @@
         <v>8</v>
       </c>
       <c r="C166" s="1">
-        <v>157259.109375</v>
-      </c>
-      <c r="D166" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E166" s="1">
-        <v>3.1833586433549499e-08</v>
+        <v>12330866.884231567</v>
+      </c>
+      <c r="D166" s="1">
+        <v>1570005.25</v>
+      </c>
+      <c r="E166" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0.12732318043708801</v>
       </c>
     </row>
     <row r="167">
@@ -2932,13 +3436,16 @@
         <v>8</v>
       </c>
       <c r="C167" s="1">
-        <v>241295.046875</v>
-      </c>
-      <c r="D167" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E167" s="1">
-        <v>2.8124910400606495e-08</v>
+        <v>21252714.208602905</v>
+      </c>
+      <c r="D167" s="1">
+        <v>1674901.5</v>
+      </c>
+      <c r="E167" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0.078808829188346863</v>
       </c>
     </row>
     <row r="168">
@@ -2949,13 +3456,16 @@
         <v>8</v>
       </c>
       <c r="C168" s="1">
-        <v>222323.859375</v>
-      </c>
-      <c r="D168" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E168" s="1">
-        <v>5.2989538090741917e-08</v>
+        <v>10294373.378753662</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1351896.875</v>
+      </c>
+      <c r="E168" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F168" s="1">
+        <v>0.13132385909557343</v>
       </c>
     </row>
     <row r="169">
@@ -2966,13 +3476,16 @@
         <v>8</v>
       </c>
       <c r="C169" s="1">
-        <v>221336.734375</v>
-      </c>
-      <c r="D169" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E169" s="1">
-        <v>5.7890517268788244e-08</v>
+        <v>9254571.3768005371</v>
+      </c>
+      <c r="D169" s="1">
+        <v>856904.5625</v>
+      </c>
+      <c r="E169" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0.092592574656009674</v>
       </c>
     </row>
     <row r="170">
@@ -2983,13 +3496,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="1">
-        <v>90785.859375</v>
-      </c>
-      <c r="D170" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E170" s="1">
-        <v>4.1630642044765409e-08</v>
+        <v>5221157.0129394531</v>
+      </c>
+      <c r="D170" s="1">
+        <v>469480</v>
+      </c>
+      <c r="E170" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0.089918769896030426</v>
       </c>
     </row>
     <row r="171">
@@ -3000,13 +3516,16 @@
         <v>8</v>
       </c>
       <c r="C171" s="1">
-        <v>39298.9140625</v>
-      </c>
-      <c r="D171" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E171" s="1">
-        <v>1.882128053409815e-08</v>
+        <v>4942172.721862793</v>
+      </c>
+      <c r="D171" s="1">
+        <v>165101.734375</v>
+      </c>
+      <c r="E171" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F171" s="1">
+        <v>0.033406712114810944</v>
       </c>
     </row>
     <row r="172">
@@ -3017,13 +3536,16 @@
         <v>8</v>
       </c>
       <c r="C172" s="1">
-        <v>68759.625</v>
-      </c>
-      <c r="D172" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E172" s="1">
-        <v>4.0185298644246359e-08</v>
+        <v>3990679.4891357422</v>
+      </c>
+      <c r="D172" s="1">
+        <v>96088.796875</v>
+      </c>
+      <c r="E172" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0.024078303948044777</v>
       </c>
     </row>
     <row r="173">
@@ -3034,13 +3556,16 @@
         <v>8</v>
       </c>
       <c r="C173" s="1">
-        <v>97548.4453125</v>
-      </c>
-      <c r="D173" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E173" s="1">
-        <v>1.064911714365735e-07</v>
+        <v>2106215.8489227295</v>
+      </c>
+      <c r="D173" s="1">
+        <v>100041.7109375</v>
+      </c>
+      <c r="E173" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F173" s="1">
+        <v>0.047498319298028946</v>
       </c>
     </row>
     <row r="174">
@@ -3051,13 +3576,16 @@
         <v>8</v>
       </c>
       <c r="C174" s="1">
-        <v>12723.689453125</v>
-      </c>
-      <c r="D174" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E174" s="1">
-        <v>9.9292876143408648e-09</v>
+        <v>2926799.0379333496</v>
+      </c>
+      <c r="D174" s="1">
+        <v>75425.0625</v>
+      </c>
+      <c r="E174" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0.02577049657702446</v>
       </c>
     </row>
     <row r="175">
@@ -3068,13 +3596,16 @@
         <v>8</v>
       </c>
       <c r="C175" s="1">
-        <v>9738.57421875</v>
-      </c>
-      <c r="D175" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E175" s="1">
-        <v>1.0700066610525027e-08</v>
+        <v>2066948.8639831543</v>
+      </c>
+      <c r="D175" s="1">
+        <v>54351.703125</v>
+      </c>
+      <c r="E175" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0.026295620948076248</v>
       </c>
     </row>
     <row r="176">
@@ -3085,13 +3616,16 @@
         <v>8</v>
       </c>
       <c r="C176" s="1">
-        <v>34101.8671875</v>
-      </c>
-      <c r="D176" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E176" s="1">
-        <v>3.6367136857506921e-08</v>
+        <v>2121538.7115478516</v>
+      </c>
+      <c r="D176" s="1">
+        <v>30674.642578125</v>
+      </c>
+      <c r="E176" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F176" s="1">
+        <v>0.014458676800131798</v>
       </c>
     </row>
     <row r="177">
@@ -3102,13 +3636,16 @@
         <v>8</v>
       </c>
       <c r="C177" s="1">
-        <v>2554.861083984375</v>
-      </c>
-      <c r="D177" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E177" s="1">
-        <v>5.9710423272463231e-09</v>
+        <v>973526.56936645508</v>
+      </c>
+      <c r="D177" s="1">
+        <v>28858.61328125</v>
+      </c>
+      <c r="E177" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F177" s="1">
+        <v>0.029643375426530838</v>
       </c>
     </row>
     <row r="178">
@@ -3119,13 +3656,16 @@
         <v>8</v>
       </c>
       <c r="C178" s="1">
-        <v>5612.482421875</v>
-      </c>
-      <c r="D178" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E178" s="1">
-        <v>1.2994964215806704e-08</v>
+        <v>972189.28337097168</v>
+      </c>
+      <c r="D178" s="1">
+        <v>20119.1953125</v>
+      </c>
+      <c r="E178" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F178" s="1">
+        <v>0.020694730803370476</v>
       </c>
     </row>
     <row r="179">
@@ -3136,13 +3676,16 @@
         <v>8</v>
       </c>
       <c r="C179" s="1">
-        <v>24918.2109375</v>
-      </c>
-      <c r="D179" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E179" s="1">
-        <v>1.2563407381094294e-07</v>
+        <v>446174.12567138672</v>
+      </c>
+      <c r="D179" s="1">
+        <v>10125.1298828125</v>
+      </c>
+      <c r="E179" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F179" s="1">
+        <v>0.022693224251270294</v>
       </c>
     </row>
     <row r="180">
@@ -3153,13 +3696,16 @@
         <v>8</v>
       </c>
       <c r="C180" s="1">
-        <v>5.0881061553955078</v>
-      </c>
-      <c r="D180" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E180" s="1">
-        <v>2.5336772610518032e-11</v>
+        <v>452284.0518951416</v>
+      </c>
+      <c r="D180" s="1">
+        <v>5227.9228515625</v>
+      </c>
+      <c r="E180" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F180" s="1">
+        <v>0.011558936908841133</v>
       </c>
     </row>
     <row r="181">
@@ -3170,13 +3716,16 @@
         <v>8</v>
       </c>
       <c r="C181" s="1">
-        <v>0</v>
-      </c>
-      <c r="D181" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E181" s="1">
-        <v>0</v>
+        <v>154776.07345581055</v>
+      </c>
+      <c r="D181" s="1">
+        <v>1749.8079833984375</v>
+      </c>
+      <c r="E181" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F181" s="1">
+        <v>0.011305416934192181</v>
       </c>
     </row>
     <row r="182">
@@ -3187,13 +3736,16 @@
         <v>8</v>
       </c>
       <c r="C182" s="1">
-        <v>38.702857971191406</v>
-      </c>
-      <c r="D182" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E182" s="1">
-        <v>1.4335309606039459e-09</v>
+        <v>60746.269226074219</v>
+      </c>
+      <c r="D182" s="1">
+        <v>3758.697998046875</v>
+      </c>
+      <c r="E182" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F182" s="1">
+        <v>0.061875373125076294</v>
       </c>
     </row>
     <row r="183">
@@ -3204,13 +3756,16 @@
         <v>8</v>
       </c>
       <c r="C183" s="1">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2">
-        <v>472523</v>
-      </c>
-      <c r="E183" s="1">
-        <v>0</v>
+        <v>40497.51091003418</v>
+      </c>
+      <c r="D183" s="1">
+        <v>1381.36962890625</v>
+      </c>
+      <c r="E183" s="2">
+        <v>3474730</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0.034109987318515778</v>
       </c>
     </row>
     <row r="184">
@@ -3221,13 +3776,16 @@
         <v>9</v>
       </c>
       <c r="C184" s="1">
-        <v>60019.5</v>
-      </c>
-      <c r="D184" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E184" s="1">
-        <v>6.1525284422714321e-08</v>
+        <v>1264938.232421875</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1</v>
+      </c>
+      <c r="E184" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F184" s="1">
+        <v>7.9055246260395506e-07</v>
       </c>
     </row>
     <row r="185">
@@ -3238,13 +3796,16 @@
         <v>9</v>
       </c>
       <c r="C185" s="1">
-        <v>64591.11328125</v>
-      </c>
-      <c r="D185" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E185" s="1">
-        <v>5.3943085553953551e-09</v>
+        <v>15898425.872802734</v>
+      </c>
+      <c r="D185" s="1">
+        <v>1</v>
+      </c>
+      <c r="E185" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F185" s="1">
+        <v>6.289931064884513e-08</v>
       </c>
     </row>
     <row r="186">
@@ -3255,13 +3816,16 @@
         <v>9</v>
       </c>
       <c r="C186" s="1">
-        <v>69046.7890625</v>
-      </c>
-      <c r="D186" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E186" s="1">
-        <v>4.7906736355685098e-09</v>
+        <v>19060770.99609375</v>
+      </c>
+      <c r="D186" s="1">
+        <v>3634.8701171875</v>
+      </c>
+      <c r="E186" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F186" s="1">
+        <v>0.0001906990073621273</v>
       </c>
     </row>
     <row r="187">
@@ -3272,13 +3836,16 @@
         <v>9</v>
       </c>
       <c r="C187" s="1">
-        <v>95902.125</v>
-      </c>
-      <c r="D187" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E187" s="1">
-        <v>5.8756040033358659e-09</v>
+        <v>22156789.794921875</v>
+      </c>
+      <c r="D187" s="1">
+        <v>10904.6103515625</v>
+      </c>
+      <c r="E187" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0.00049215659964829683</v>
       </c>
     </row>
     <row r="188">
@@ -3289,13 +3856,16 @@
         <v>9</v>
       </c>
       <c r="C188" s="1">
-        <v>235270.5625</v>
-      </c>
-      <c r="D188" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E188" s="1">
-        <v>3.6827714211540297e-08</v>
+        <v>9027962.40234375</v>
+      </c>
+      <c r="D188" s="1">
+        <v>9692.9873046875</v>
+      </c>
+      <c r="E188" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F188" s="1">
+        <v>0.0010736627737060189</v>
       </c>
     </row>
     <row r="189">
@@ -3306,13 +3876,16 @@
         <v>9</v>
       </c>
       <c r="C189" s="1">
-        <v>393822.40625</v>
-      </c>
-      <c r="D189" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E189" s="1">
-        <v>6.4142028577407473e-08</v>
+        <v>9068628.90625</v>
+      </c>
+      <c r="D189" s="1">
+        <v>33925.453125</v>
+      </c>
+      <c r="E189" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0.003740968182682991</v>
       </c>
     </row>
     <row r="190">
@@ -3323,13 +3896,16 @@
         <v>9</v>
       </c>
       <c r="C190" s="1">
-        <v>166236.46875</v>
-      </c>
-      <c r="D190" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E190" s="1">
-        <v>3.6578004625198446e-08</v>
+        <v>6862453.61328125</v>
+      </c>
+      <c r="D190" s="1">
+        <v>100393</v>
+      </c>
+      <c r="E190" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F190" s="1">
+        <v>0.014629315584897995</v>
       </c>
     </row>
     <row r="191">
@@ -3340,13 +3916,16 @@
         <v>9</v>
       </c>
       <c r="C191" s="1">
-        <v>79493.59375</v>
-      </c>
-      <c r="D191" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E191" s="1">
-        <v>1.300252883140729e-08</v>
+        <v>9198800.5218505859</v>
+      </c>
+      <c r="D191" s="1">
+        <v>134507.125</v>
+      </c>
+      <c r="E191" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0.014622245915234089</v>
       </c>
     </row>
     <row r="192">
@@ -3357,13 +3936,16 @@
         <v>9</v>
       </c>
       <c r="C192" s="1">
-        <v>75329.4765625</v>
-      </c>
-      <c r="D192" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E192" s="1">
-        <v>9.1715532946068379e-09</v>
+        <v>12330866.884231567</v>
+      </c>
+      <c r="D192" s="1">
+        <v>144514.234375</v>
+      </c>
+      <c r="E192" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0.011719713918864727</v>
       </c>
     </row>
     <row r="193">
@@ -3374,13 +3956,16 @@
         <v>9</v>
       </c>
       <c r="C193" s="1">
-        <v>52495.62890625</v>
-      </c>
-      <c r="D193" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E193" s="1">
-        <v>3.6802225711340952e-09</v>
+        <v>21252714.208602905</v>
+      </c>
+      <c r="D193" s="1">
+        <v>233576.234375</v>
+      </c>
+      <c r="E193" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F193" s="1">
+        <v>0.010990419425070286</v>
       </c>
     </row>
     <row r="194">
@@ -3391,13 +3976,16 @@
         <v>9</v>
       </c>
       <c r="C194" s="1">
-        <v>28975.53125</v>
-      </c>
-      <c r="D194" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E194" s="1">
-        <v>4.1537817629944129e-09</v>
+        <v>10294373.378753662</v>
+      </c>
+      <c r="D194" s="1">
+        <v>243603.46875</v>
+      </c>
+      <c r="E194" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F194" s="1">
+        <v>0.023663749918341637</v>
       </c>
     </row>
     <row r="195">
@@ -3408,13 +3996,16 @@
         <v>9</v>
       </c>
       <c r="C195" s="1">
-        <v>30609.943359375</v>
-      </c>
-      <c r="D195" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E195" s="1">
-        <v>4.8153143694662504e-09</v>
+        <v>9254571.3768005371</v>
+      </c>
+      <c r="D195" s="1">
+        <v>254660.453125</v>
+      </c>
+      <c r="E195" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0.027517260983586311</v>
       </c>
     </row>
     <row r="196">
@@ -3425,13 +4016,16 @@
         <v>9</v>
       </c>
       <c r="C196" s="1">
-        <v>64887.1796875</v>
-      </c>
-      <c r="D196" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E196" s="1">
-        <v>1.7896249815407828e-08</v>
+        <v>5221157.0129394531</v>
+      </c>
+      <c r="D196" s="1">
+        <v>107529.3984375</v>
+      </c>
+      <c r="E196" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F196" s="1">
+        <v>0.020594935864210129</v>
       </c>
     </row>
     <row r="197">
@@ -3442,13 +4036,16 @@
         <v>9</v>
       </c>
       <c r="C197" s="1">
-        <v>65344.69140625</v>
-      </c>
-      <c r="D197" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E197" s="1">
-        <v>1.8822927216888274e-08</v>
+        <v>4942172.721862793</v>
+      </c>
+      <c r="D197" s="1">
+        <v>58113.5859375</v>
+      </c>
+      <c r="E197" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F197" s="1">
+        <v>0.011758712120354176</v>
       </c>
     </row>
     <row r="198">
@@ -3459,13 +4056,16 @@
         <v>9</v>
       </c>
       <c r="C198" s="1">
-        <v>17903.716796875</v>
-      </c>
-      <c r="D198" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E198" s="1">
-        <v>6.293396470624657e-09</v>
+        <v>3990679.4891357422</v>
+      </c>
+      <c r="D198" s="1">
+        <v>67729.8125</v>
+      </c>
+      <c r="E198" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F198" s="1">
+        <v>0.016971999779343605</v>
       </c>
     </row>
     <row r="199">
@@ -3476,13 +4076,16 @@
         <v>9</v>
       </c>
       <c r="C199" s="1">
-        <v>9005.2177734375</v>
-      </c>
-      <c r="D199" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E199" s="1">
-        <v>5.912833778154436e-09</v>
+        <v>2106215.8489227295</v>
+      </c>
+      <c r="D199" s="1">
+        <v>58950.8203125</v>
+      </c>
+      <c r="E199" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F199" s="1">
+        <v>0.027988974004983902</v>
       </c>
     </row>
     <row r="200">
@@ -3493,13 +4096,16 @@
         <v>9</v>
       </c>
       <c r="C200" s="1">
-        <v>7196.00634765625</v>
-      </c>
-      <c r="D200" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E200" s="1">
-        <v>3.3775733321306234e-09</v>
+        <v>2926799.0379333496</v>
+      </c>
+      <c r="D200" s="1">
+        <v>17435</v>
+      </c>
+      <c r="E200" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F200" s="1">
+        <v>0.0059570199809968472</v>
       </c>
     </row>
     <row r="201">
@@ -3510,13 +4116,16 @@
         <v>9</v>
       </c>
       <c r="C201" s="1">
-        <v>1034.0643310546875</v>
-      </c>
-      <c r="D201" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E201" s="1">
-        <v>6.8335576086653305e-10</v>
+        <v>2066948.8639831543</v>
+      </c>
+      <c r="D201" s="1">
+        <v>13030.740234375</v>
+      </c>
+      <c r="E201" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0.0063043362461030483</v>
       </c>
     </row>
     <row r="202">
@@ -3527,13 +4136,16 @@
         <v>9</v>
       </c>
       <c r="C202" s="1">
-        <v>0</v>
-      </c>
-      <c r="D202" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E202" s="1">
-        <v>0</v>
+        <v>2121538.7115478516</v>
+      </c>
+      <c r="D202" s="1">
+        <v>17672.072265625</v>
+      </c>
+      <c r="E202" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F202" s="1">
+        <v>0.0083298375830054283</v>
       </c>
     </row>
     <row r="203">
@@ -3544,13 +4156,16 @@
         <v>9</v>
       </c>
       <c r="C203" s="1">
-        <v>0</v>
-      </c>
-      <c r="D203" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E203" s="1">
-        <v>0</v>
+        <v>973526.56936645508</v>
+      </c>
+      <c r="D203" s="1">
+        <v>3065.32470703125</v>
+      </c>
+      <c r="E203" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0.0031486810185015202</v>
       </c>
     </row>
     <row r="204">
@@ -3561,13 +4176,16 @@
         <v>9</v>
       </c>
       <c r="C204" s="1">
-        <v>0</v>
-      </c>
-      <c r="D204" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E204" s="1">
-        <v>0</v>
+        <v>972189.28337097168</v>
+      </c>
+      <c r="D204" s="1">
+        <v>4138.96240234375</v>
+      </c>
+      <c r="E204" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0.0042573628015816212</v>
       </c>
     </row>
     <row r="205">
@@ -3578,13 +4196,16 @@
         <v>9</v>
       </c>
       <c r="C205" s="1">
-        <v>0</v>
-      </c>
-      <c r="D205" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E205" s="1">
-        <v>0</v>
+        <v>446174.12567138672</v>
+      </c>
+      <c r="D205" s="1">
+        <v>11138.72265625</v>
+      </c>
+      <c r="E205" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F205" s="1">
+        <v>0.024964967742562294</v>
       </c>
     </row>
     <row r="206">
@@ -3595,13 +4216,16 @@
         <v>9</v>
       </c>
       <c r="C206" s="1">
-        <v>0</v>
-      </c>
-      <c r="D206" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E206" s="1">
-        <v>0</v>
+        <v>452284.0518951416</v>
+      </c>
+      <c r="D206" s="1">
+        <v>575.0059814453125</v>
+      </c>
+      <c r="E206" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0.001271338202059269</v>
       </c>
     </row>
     <row r="207">
@@ -3612,13 +4236,16 @@
         <v>9</v>
       </c>
       <c r="C207" s="1">
-        <v>0</v>
-      </c>
-      <c r="D207" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E207" s="1">
-        <v>0</v>
+        <v>154776.07345581055</v>
+      </c>
+      <c r="D207" s="1">
+        <v>4134.5166015625</v>
+      </c>
+      <c r="E207" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0.026712892577052116</v>
       </c>
     </row>
     <row r="208">
@@ -3629,13 +4256,16 @@
         <v>9</v>
       </c>
       <c r="C208" s="1">
-        <v>0</v>
-      </c>
-      <c r="D208" s="2">
-        <v>785624</v>
-      </c>
-      <c r="E208" s="1">
-        <v>0</v>
+        <v>60746.269226074219</v>
+      </c>
+      <c r="D208" s="1">
+        <v>16.977466583251953</v>
+      </c>
+      <c r="E208" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0.00027948163915425539</v>
       </c>
     </row>
     <row r="209">
@@ -3646,13 +4276,536 @@
         <v>9</v>
       </c>
       <c r="C209" s="1">
-        <v>0</v>
-      </c>
-      <c r="D209" s="2">
+        <v>40497.51091003418</v>
+      </c>
+      <c r="D209" s="1">
+        <v>1</v>
+      </c>
+      <c r="E209" s="2">
+        <v>472523</v>
+      </c>
+      <c r="F209" s="1">
+        <v>2.4692875740583986e-05</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1">
+        <v>6</v>
+      </c>
+      <c r="B210" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1264938.232421875</v>
+      </c>
+      <c r="D210" s="1">
+        <v>68060.97900390625</v>
+      </c>
+      <c r="E210" s="2">
         <v>785624</v>
       </c>
-      <c r="E209" s="1">
-        <v>0</v>
+      <c r="F210" s="1">
+        <v>0.053805772215127945</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="1">
+        <v>15898425.872802734</v>
+      </c>
+      <c r="D211" s="1">
+        <v>116636.453125</v>
+      </c>
+      <c r="E211" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0.0073363524861633778</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1">
+        <v>8</v>
+      </c>
+      <c r="B212" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="1">
+        <v>19060770.99609375</v>
+      </c>
+      <c r="D212" s="1">
+        <v>129139.296875</v>
+      </c>
+      <c r="E212" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0.0067751351743936539</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="1">
+        <v>22156789.794921875</v>
+      </c>
+      <c r="D213" s="1">
+        <v>167575.046875</v>
+      </c>
+      <c r="E213" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0.0075631462968885899</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="1">
+        <v>9027962.40234375</v>
+      </c>
+      <c r="D214" s="1">
+        <v>299865.8125</v>
+      </c>
+      <c r="E214" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F214" s="1">
+        <v>0.033215224742889404</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1">
+        <v>11</v>
+      </c>
+      <c r="B215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215" s="1">
+        <v>9068628.90625</v>
+      </c>
+      <c r="D215" s="1">
+        <v>520934.78125</v>
+      </c>
+      <c r="E215" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0.057443611323833466</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1">
+        <v>12</v>
+      </c>
+      <c r="B216" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="1">
+        <v>6862453.61328125</v>
+      </c>
+      <c r="D216" s="1">
+        <v>328511.84375</v>
+      </c>
+      <c r="E216" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F216" s="1">
+        <v>0.047870900481939316</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1">
+        <v>13</v>
+      </c>
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="1">
+        <v>9198800.5218505859</v>
+      </c>
+      <c r="D217" s="1">
+        <v>177580.984375</v>
+      </c>
+      <c r="E217" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0.019304797053337097</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1">
+        <v>14</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="1">
+        <v>12330866.884231567</v>
+      </c>
+      <c r="D218" s="1">
+        <v>143796.453125</v>
+      </c>
+      <c r="E218" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F218" s="1">
+        <v>0.01166150439530611</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1">
+        <v>15</v>
+      </c>
+      <c r="B219" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" s="1">
+        <v>21252714.208602905</v>
+      </c>
+      <c r="D219" s="1">
+        <v>151966.46875</v>
+      </c>
+      <c r="E219" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0.0071504497900605202</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1">
+        <v>16</v>
+      </c>
+      <c r="B220" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" s="1">
+        <v>10294373.378753662</v>
+      </c>
+      <c r="D220" s="1">
+        <v>78312.5546875</v>
+      </c>
+      <c r="E220" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0.0076073161326348782</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1">
+        <v>17</v>
+      </c>
+      <c r="B221" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" s="1">
+        <v>9254571.3768005371</v>
+      </c>
+      <c r="D221" s="1">
+        <v>110064.75</v>
+      </c>
+      <c r="E221" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0.011893014423549175</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1">
+        <v>18</v>
+      </c>
+      <c r="B222" t="s">
+        <v>10</v>
+      </c>
+      <c r="C222" s="1">
+        <v>5221157.0129394531</v>
+      </c>
+      <c r="D222" s="1">
+        <v>56725.46484375</v>
+      </c>
+      <c r="E222" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0.010864539071917534</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1">
+        <v>19</v>
+      </c>
+      <c r="B223" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" s="1">
+        <v>4942172.721862793</v>
+      </c>
+      <c r="D223" s="1">
+        <v>57087.48046875</v>
+      </c>
+      <c r="E223" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0.011551089584827423</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1">
+        <v>20</v>
+      </c>
+      <c r="B224" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="1">
+        <v>3990679.4891357422</v>
+      </c>
+      <c r="D224" s="1">
+        <v>29459.564453125</v>
+      </c>
+      <c r="E224" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0.0073820925317704678</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1">
+        <v>21</v>
+      </c>
+      <c r="B225" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" s="1">
+        <v>2106215.8489227295</v>
+      </c>
+      <c r="D225" s="1">
+        <v>6367.35595703125</v>
+      </c>
+      <c r="E225" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0.0030231259297579527</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1">
+        <v>22</v>
+      </c>
+      <c r="B226" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" s="1">
+        <v>2926799.0379333496</v>
+      </c>
+      <c r="D226" s="1">
+        <v>4556.40087890625</v>
+      </c>
+      <c r="E226" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0.0015567863592877984</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1">
+        <v>23</v>
+      </c>
+      <c r="B227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="1">
+        <v>2066948.8639831543</v>
+      </c>
+      <c r="D227" s="1">
+        <v>825.81317138671875</v>
+      </c>
+      <c r="E227" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0.0003995324659626931</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1">
+        <v>24</v>
+      </c>
+      <c r="B228" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" s="1">
+        <v>2121538.7115478516</v>
+      </c>
+      <c r="D228" s="1">
+        <v>1</v>
+      </c>
+      <c r="E228" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F228" s="1">
+        <v>4.7135600311776216e-07</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1">
+        <v>25</v>
+      </c>
+      <c r="B229" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="1">
+        <v>973526.56936645508</v>
+      </c>
+      <c r="D229" s="1">
+        <v>5.2083954811096191</v>
+      </c>
+      <c r="E229" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F229" s="1">
+        <v>5.3500289141084068e-06</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1">
+        <v>26</v>
+      </c>
+      <c r="B230" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" s="1">
+        <v>972189.28337097168</v>
+      </c>
+      <c r="D230" s="1">
+        <v>1888.3099365234375</v>
+      </c>
+      <c r="E230" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0.0019423274789005518</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1">
+        <v>27</v>
+      </c>
+      <c r="B231" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" s="1">
+        <v>446174.12567138672</v>
+      </c>
+      <c r="D231" s="1">
+        <v>1</v>
+      </c>
+      <c r="E231" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F231" s="1">
+        <v>2.2412773432733957e-06</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1">
+        <v>28</v>
+      </c>
+      <c r="B232" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" s="1">
+        <v>452284.0518951416</v>
+      </c>
+      <c r="D232" s="1">
+        <v>1</v>
+      </c>
+      <c r="E232" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F232" s="1">
+        <v>2.210999809904024e-06</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1">
+        <v>29</v>
+      </c>
+      <c r="B233" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" s="1">
+        <v>154776.07345581055</v>
+      </c>
+      <c r="D233" s="1">
+        <v>1</v>
+      </c>
+      <c r="E233" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F233" s="1">
+        <v>6.460947133746231e-06</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1">
+        <v>30</v>
+      </c>
+      <c r="B234" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" s="1">
+        <v>60746.269226074219</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E234" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F234" s="1">
+        <v>1.6461915947729722e-05</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1">
+        <v>31</v>
+      </c>
+      <c r="B235" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" s="1">
+        <v>40497.51091003418</v>
+      </c>
+      <c r="D235" s="1">
+        <v>1</v>
+      </c>
+      <c r="E235" s="2">
+        <v>785624</v>
+      </c>
+      <c r="F235" s="1">
+        <v>2.4692875740583986e-05</v>
       </c>
     </row>
   </sheetData>
